--- a/API/controller_api_notification.xlsx
+++ b/API/controller_api_notification.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="0" windowWidth="27390" windowHeight="12795" tabRatio="874"/>
+    <workbookView xWindow="28665" yWindow="-15" windowWidth="28710" windowHeight="12600" tabRatio="874"/>
   </bookViews>
   <sheets>
     <sheet name="REST API list" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="311">
   <si>
     <t>string</t>
     <phoneticPr fontId="1"/>
@@ -401,14 +401,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>object[ ]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>string[ ]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>○</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -441,10 +433,6 @@
   </si>
   <si>
     <t>slice_type</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>×</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -488,23 +476,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>slice_unit</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>opposite_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>opposite_type</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>slice_type</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -545,10 +517,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>○</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>cluster_unit</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -558,10 +526,6 @@
   </si>
   <si>
     <t>object</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cp_id</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -886,12 +850,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>"fc": FC
-"ec": EC
-"em": EM</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Cluster ID managed by the controller</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -979,10 +937,6 @@
 "warn"</t>
   </si>
   <si>
-    <t>Not support</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Failure notification information(per physical unit)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1004,6 +958,301 @@
   </si>
   <si>
     <t>Cluster information</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cluster unit request/response in multi cluster</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Optional for FC
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cluster ID of the request destination</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Request information</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Request URI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Request method</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"POST"
+"PUT"
+"DELETE"
+"PATCH"
+※ Only operations that can be asynchronous can be specified</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Request body part</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Character string information of response body part created for each processing.
+※ Basically it assumes the json format, but for double quotes, it is assumed to be replaced by 『\"』 and stored.
+※ In the IF case where information is not placed on the body part, it is an empty string.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Response code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Response body data at rollback</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>String information of response Body data created every rollback to the cluster</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rollback information</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Optional for FC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rollback process result</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>success："completed"、
+failure："failed"
+none："none"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rollback start time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Request/Response information of rollback for clusters</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>None in case there is no target for rollback</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cluster ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Response information</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"mfc"：MFC
+"fc"：FC
+"ec"：EC
+"em"：EM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Optional for MFC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Failure notification information(per slice unit)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Slice information</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Slice type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"l2vpn"：L2Slice
+"l3vpn"：L3Slice</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Slice ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CP ID list</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>slice_unit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Failure notification information(per slice unit)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>object[ ]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Slice information</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>slice_type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Slice type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"l2vpn"：L2Slice
+"l3vpn"：L3Slice</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Slice ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>string[ ]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CP ID list</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Failure status</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"up"
+"down"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reachable_statuses</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Reachability status list</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Reachability status list between CP &lt;-&gt; CP and CP &lt;-&gt; inter-cluster link IF.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cp_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CP ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>One CP ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>opposite_type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Opposite type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"cp"：CP
+"cluster_link-if"：Inter-cluster Link</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>opposite_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The Opposite ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID of the type specified by "opposite_type"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Reachability status</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"reachable"：Reachable
+"unreachable"：Unreachable</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cluster_link</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Inter-cluster link failure information</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【FCのみ設定可能なパラメータ】</t>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Reachability status list between inter-cluster link IF &lt;-&gt; inter-cluster link IF.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cluster_link_if_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Inter-cluster link ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>opposite_cluster_link_if_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Opposite inter-cluster link ID</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -31968,7 +32217,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="296">
+  <cellXfs count="273">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -32212,9 +32461,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -32320,6 +32566,147 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -32356,210 +32743,234 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -32596,265 +33007,34 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -42901,7 +43081,7 @@
   <dimension ref="B1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -42923,201 +43103,201 @@
   <sheetData>
     <row r="1" spans="2:12" ht="14.25" thickBot="1"/>
     <row r="2" spans="2:12" ht="14.25" customHeight="1" thickBot="1">
-      <c r="B2" s="121" t="s">
-        <v>143</v>
-      </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="124" t="s">
-        <v>144</v>
-      </c>
-      <c r="I2" s="119" t="s">
+      <c r="B2" s="167" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="169"/>
+      <c r="H2" s="170" t="s">
+        <v>135</v>
+      </c>
+      <c r="I2" s="165" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="119" t="s">
+      <c r="J2" s="165" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="119" t="s">
-        <v>157</v>
-      </c>
-      <c r="L2" s="117" t="s">
-        <v>158</v>
+      <c r="K2" s="165" t="s">
+        <v>148</v>
+      </c>
+      <c r="L2" s="163" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="15" thickTop="1" thickBot="1">
-      <c r="B3" s="128" t="s">
-        <v>140</v>
-      </c>
-      <c r="C3" s="127"/>
-      <c r="D3" s="126" t="s">
-        <v>141</v>
-      </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="126" t="s">
-        <v>142</v>
-      </c>
-      <c r="G3" s="127"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="118"/>
+      <c r="B3" s="174" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="173"/>
+      <c r="D3" s="172" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="173"/>
+      <c r="F3" s="172" t="s">
+        <v>133</v>
+      </c>
+      <c r="G3" s="173"/>
+      <c r="H3" s="171"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166"/>
+      <c r="K3" s="166"/>
+      <c r="L3" s="164"/>
     </row>
     <row r="4" spans="2:12" s="27" customFormat="1">
-      <c r="B4" s="225">
+      <c r="B4" s="159">
         <v>0</v>
       </c>
-      <c r="C4" s="226" t="s">
-        <v>145</v>
-      </c>
-      <c r="D4" s="227">
+      <c r="C4" s="161" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="126">
         <v>1</v>
       </c>
-      <c r="E4" s="227" t="s">
-        <v>148</v>
-      </c>
-      <c r="F4" s="228">
+      <c r="E4" s="126" t="s">
+        <v>139</v>
+      </c>
+      <c r="F4" s="127">
         <v>1</v>
       </c>
-      <c r="G4" s="228" t="s">
-        <v>152</v>
-      </c>
-      <c r="H4" s="229" t="str">
+      <c r="G4" s="127" t="s">
+        <v>143</v>
+      </c>
+      <c r="H4" s="128" t="str">
         <f>TEXT(LOOKUP(99,$B4:B$5),"00")&amp;TEXT(LOOKUP(99,$D4:D$4),"00")&amp;TEXT(F4,"00")</f>
         <v>000101</v>
       </c>
-      <c r="I4" s="228" t="s">
+      <c r="I4" s="127" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="228" t="s">
+      <c r="J4" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="230" t="s">
-        <v>156</v>
-      </c>
-      <c r="L4" s="222" t="s">
+      <c r="K4" s="129" t="s">
+        <v>147</v>
+      </c>
+      <c r="L4" s="123" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:12" s="27" customFormat="1">
-      <c r="B5" s="231"/>
-      <c r="C5" s="232"/>
-      <c r="D5" s="233">
+      <c r="B5" s="160"/>
+      <c r="C5" s="162"/>
+      <c r="D5" s="130">
         <v>2</v>
       </c>
-      <c r="E5" s="233" t="s">
-        <v>149</v>
-      </c>
-      <c r="F5" s="233">
+      <c r="E5" s="130" t="s">
+        <v>140</v>
+      </c>
+      <c r="F5" s="130">
         <v>1</v>
       </c>
-      <c r="G5" s="233" t="s">
-        <v>153</v>
-      </c>
-      <c r="H5" s="233" t="str">
+      <c r="G5" s="130" t="s">
+        <v>144</v>
+      </c>
+      <c r="H5" s="130" t="str">
         <f>TEXT(LOOKUP(99,$B4:B$5),"00")&amp;TEXT(LOOKUP(99,$D5:D$5),"00")&amp;TEXT(F5,"00")</f>
         <v>000201</v>
       </c>
-      <c r="I5" s="233" t="s">
+      <c r="I5" s="130" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="233" t="s">
+      <c r="J5" s="130" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="233" t="s">
+      <c r="K5" s="130" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="223" t="s">
+      <c r="L5" s="124" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="6" spans="2:12" s="29" customFormat="1">
-      <c r="B6" s="234">
+      <c r="B6" s="131">
         <v>1</v>
       </c>
-      <c r="C6" s="235" t="s">
-        <v>146</v>
-      </c>
-      <c r="D6" s="236">
+      <c r="C6" s="132" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="133">
         <v>1</v>
       </c>
-      <c r="E6" s="236" t="s">
-        <v>150</v>
-      </c>
-      <c r="F6" s="236">
+      <c r="E6" s="133" t="s">
+        <v>141</v>
+      </c>
+      <c r="F6" s="133">
         <v>1</v>
       </c>
-      <c r="G6" s="236" t="s">
-        <v>154</v>
-      </c>
-      <c r="H6" s="236" t="str">
+      <c r="G6" s="133" t="s">
+        <v>145</v>
+      </c>
+      <c r="H6" s="133" t="str">
         <f>TEXT(LOOKUP(99,$B$5:B6),"00")&amp;TEXT(LOOKUP(99,$D$5:D6),"00")&amp;TEXT(F6,"00")</f>
         <v>010101</v>
       </c>
-      <c r="I6" s="233" t="s">
+      <c r="I6" s="130" t="s">
         <v>43</v>
       </c>
-      <c r="J6" s="233" t="s">
+      <c r="J6" s="130" t="s">
         <v>60</v>
       </c>
-      <c r="K6" s="236" t="s">
+      <c r="K6" s="133" t="s">
         <v>61</v>
       </c>
-      <c r="L6" s="224" t="s">
+      <c r="L6" s="125" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="237">
+      <c r="B7" s="134">
         <v>2</v>
       </c>
-      <c r="C7" s="238" t="s">
-        <v>147</v>
-      </c>
-      <c r="D7" s="238">
+      <c r="C7" s="135" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="135">
         <v>1</v>
       </c>
-      <c r="E7" s="238" t="s">
-        <v>151</v>
-      </c>
-      <c r="F7" s="236">
+      <c r="E7" s="135" t="s">
+        <v>142</v>
+      </c>
+      <c r="F7" s="133">
         <v>1</v>
       </c>
-      <c r="G7" s="236" t="s">
-        <v>155</v>
-      </c>
-      <c r="H7" s="236" t="str">
+      <c r="G7" s="133" t="s">
+        <v>146</v>
+      </c>
+      <c r="H7" s="133" t="str">
         <f>TEXT(LOOKUP(99,$B$5:B7),"00")&amp;TEXT(LOOKUP(99,$D$5:D7),"00")&amp;TEXT(F7,"00")</f>
         <v>020101</v>
       </c>
-      <c r="I7" s="233" t="s">
+      <c r="I7" s="130" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="233" t="s">
+      <c r="J7" s="130" t="s">
         <v>58</v>
       </c>
-      <c r="K7" s="239" t="s">
+      <c r="K7" s="136" t="s">
         <v>61</v>
       </c>
-      <c r="L7" s="224" t="s">
+      <c r="L7" s="125" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="84" customHeight="1">
-      <c r="B8" s="211"/>
-      <c r="C8" s="212"/>
-      <c r="D8" s="213"/>
-      <c r="E8" s="214"/>
-      <c r="F8" s="215"/>
-      <c r="G8" s="215"/>
-      <c r="H8" s="215"/>
-      <c r="I8" s="215"/>
-      <c r="J8" s="215"/>
-      <c r="K8" s="215"/>
-      <c r="L8" s="216"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="121"/>
+      <c r="G8" s="121"/>
+      <c r="H8" s="121"/>
+      <c r="I8" s="121"/>
+      <c r="J8" s="121"/>
+      <c r="K8" s="121"/>
+      <c r="L8" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -43134,8 +43314,8 @@
     <mergeCell ref="B3:C3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="61" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="46" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -43146,8 +43326,8 @@
   </sheetPr>
   <dimension ref="B1:O15"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView view="pageBreakPreview" topLeftCell="E1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -43180,71 +43360,71 @@
       <c r="H1" s="5"/>
     </row>
     <row r="2" spans="2:15">
-      <c r="B2" s="130" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
+      <c r="B2" s="178" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
+      <c r="H2" s="178"/>
+      <c r="I2" s="178"/>
+      <c r="J2" s="178"/>
     </row>
     <row r="3" spans="2:15">
-      <c r="B3" s="130" t="s">
-        <v>160</v>
-      </c>
-      <c r="C3" s="130"/>
-      <c r="D3" s="130"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
+      <c r="B3" s="178" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="178"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="178"/>
+      <c r="G3" s="178"/>
+      <c r="H3" s="178"/>
+      <c r="I3" s="178"/>
+      <c r="J3" s="178"/>
     </row>
     <row r="4" spans="2:15">
-      <c r="B4" s="130" t="s">
-        <v>161</v>
-      </c>
-      <c r="C4" s="130"/>
-      <c r="D4" s="130"/>
-      <c r="E4" s="130"/>
-      <c r="F4" s="130"/>
-      <c r="G4" s="130"/>
-      <c r="H4" s="130"/>
-      <c r="I4" s="130"/>
-      <c r="J4" s="130"/>
+      <c r="B4" s="178" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" s="178"/>
+      <c r="D4" s="178"/>
+      <c r="E4" s="178"/>
+      <c r="F4" s="178"/>
+      <c r="G4" s="178"/>
+      <c r="H4" s="178"/>
+      <c r="I4" s="178"/>
+      <c r="J4" s="178"/>
     </row>
     <row r="5" spans="2:15" ht="14.25" thickBot="1"/>
     <row r="6" spans="2:15" s="18" customFormat="1">
-      <c r="B6" s="142" t="s">
-        <v>162</v>
-      </c>
-      <c r="C6" s="131" t="s">
-        <v>163</v>
-      </c>
-      <c r="D6" s="132"/>
-      <c r="E6" s="139" t="s">
-        <v>164</v>
-      </c>
-      <c r="F6" s="140"/>
-      <c r="G6" s="140"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="135" t="s">
-        <v>165</v>
-      </c>
-      <c r="J6" s="137" t="s">
-        <v>166</v>
+      <c r="B6" s="190" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="179" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="180"/>
+      <c r="E6" s="187" t="s">
+        <v>155</v>
+      </c>
+      <c r="F6" s="188"/>
+      <c r="G6" s="188"/>
+      <c r="H6" s="189"/>
+      <c r="I6" s="183" t="s">
+        <v>156</v>
+      </c>
+      <c r="J6" s="185" t="s">
+        <v>157</v>
       </c>
       <c r="O6" s="6"/>
     </row>
     <row r="7" spans="2:15" ht="14.25" thickBot="1">
-      <c r="B7" s="143"/>
-      <c r="C7" s="133"/>
-      <c r="D7" s="134"/>
+      <c r="B7" s="191"/>
+      <c r="C7" s="181"/>
+      <c r="D7" s="182"/>
       <c r="E7" s="20" t="s">
         <v>29</v>
       </c>
@@ -43257,12 +43437,12 @@
       <c r="H7" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="136"/>
-      <c r="J7" s="138"/>
+      <c r="I7" s="184"/>
+      <c r="J7" s="186"/>
     </row>
     <row r="8" spans="2:15" ht="14.25" thickTop="1">
-      <c r="B8" s="217" t="s">
-        <v>168</v>
+      <c r="B8" s="192" t="s">
+        <v>159</v>
       </c>
       <c r="C8" s="17">
         <v>200</v>
@@ -43283,14 +43463,14 @@
         <v>34</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="J8" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="2:15" s="18" customFormat="1">
-      <c r="B9" s="218"/>
+      <c r="B9" s="176"/>
       <c r="C9" s="16">
         <v>201</v>
       </c>
@@ -43310,7 +43490,7 @@
         <v>34</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>36</v>
@@ -43318,7 +43498,7 @@
       <c r="O9" s="6"/>
     </row>
     <row r="10" spans="2:15">
-      <c r="B10" s="218"/>
+      <c r="B10" s="176"/>
       <c r="C10" s="16">
         <v>202</v>
       </c>
@@ -43338,14 +43518,14 @@
         <v>19</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="2:15" s="18" customFormat="1">
-      <c r="B11" s="219"/>
+      <c r="B11" s="193"/>
       <c r="C11" s="16">
         <v>204</v>
       </c>
@@ -43365,7 +43545,7 @@
         <v>33</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>36</v>
@@ -43373,8 +43553,8 @@
       <c r="O11" s="6"/>
     </row>
     <row r="12" spans="2:15" ht="135">
-      <c r="B12" s="220" t="s">
-        <v>169</v>
+      <c r="B12" s="175" t="s">
+        <v>160</v>
       </c>
       <c r="C12" s="19">
         <v>400</v>
@@ -43395,14 +43575,14 @@
         <v>33</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="2:15">
-      <c r="B13" s="218"/>
+      <c r="B13" s="176"/>
       <c r="C13" s="19">
         <v>404</v>
       </c>
@@ -43422,14 +43602,14 @@
         <v>33</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="2:15">
-      <c r="B14" s="218"/>
+      <c r="B14" s="176"/>
       <c r="C14" s="19">
         <v>409</v>
       </c>
@@ -43449,14 +43629,14 @@
         <v>33</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="2:15" ht="27.75" thickBot="1">
-      <c r="B15" s="221"/>
+      <c r="B15" s="177"/>
       <c r="C15" s="22">
         <v>500</v>
       </c>
@@ -43476,7 +43656,7 @@
         <v>33</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="J15" s="13" t="s">
         <v>25</v>
@@ -43496,8 +43676,8 @@
     <mergeCell ref="B8:B11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="74" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="55" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -43509,7 +43689,7 @@
   <dimension ref="B1:N47"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -43530,76 +43710,76 @@
   <sheetData>
     <row r="1" spans="2:14" ht="14.25" thickBot="1"/>
     <row r="2" spans="2:14">
-      <c r="B2" s="146" t="s">
-        <v>178</v>
-      </c>
-      <c r="C2" s="147"/>
-      <c r="D2" s="148" t="str">
+      <c r="B2" s="221" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="222"/>
+      <c r="D2" s="223" t="str">
         <f>'REST API list'!$G$4</f>
         <v>operation result</v>
       </c>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="149"/>
+      <c r="E2" s="223"/>
+      <c r="F2" s="223"/>
+      <c r="G2" s="223"/>
+      <c r="H2" s="223"/>
+      <c r="I2" s="224"/>
     </row>
     <row r="3" spans="2:14" ht="14.25" thickBot="1">
-      <c r="B3" s="150" t="s">
-        <v>179</v>
-      </c>
-      <c r="C3" s="151"/>
-      <c r="D3" s="152" t="str">
+      <c r="B3" s="225" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="226"/>
+      <c r="D3" s="227" t="str">
         <f>'REST API list'!$I$4</f>
         <v>PUT</v>
       </c>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="153"/>
+      <c r="E3" s="227"/>
+      <c r="F3" s="227"/>
+      <c r="G3" s="227"/>
+      <c r="H3" s="227"/>
+      <c r="I3" s="228"/>
     </row>
     <row r="4" spans="2:14" ht="14.25" thickBot="1"/>
     <row r="5" spans="2:14" s="27" customFormat="1" ht="14.25" thickBot="1">
-      <c r="D5" s="154" t="s">
-        <v>180</v>
-      </c>
-      <c r="E5" s="155"/>
-      <c r="F5" s="155"/>
-      <c r="G5" s="155"/>
-      <c r="H5" s="156"/>
-      <c r="I5" s="157" t="s">
-        <v>181</v>
-      </c>
-      <c r="J5" s="156"/>
-      <c r="K5" s="162" t="s">
-        <v>183</v>
-      </c>
-      <c r="L5" s="163"/>
-      <c r="M5" s="164"/>
+      <c r="D5" s="229" t="s">
+        <v>171</v>
+      </c>
+      <c r="E5" s="211"/>
+      <c r="F5" s="211"/>
+      <c r="G5" s="211"/>
+      <c r="H5" s="212"/>
+      <c r="I5" s="210" t="s">
+        <v>172</v>
+      </c>
+      <c r="J5" s="212"/>
+      <c r="K5" s="198" t="s">
+        <v>174</v>
+      </c>
+      <c r="L5" s="199"/>
+      <c r="M5" s="200"/>
       <c r="N5" s="25" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="15" thickTop="1" thickBot="1">
       <c r="B6" s="63"/>
       <c r="C6" s="63"/>
-      <c r="D6" s="165" t="s">
+      <c r="D6" s="201" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="166"/>
-      <c r="F6" s="166"/>
-      <c r="G6" s="166"/>
-      <c r="H6" s="167"/>
-      <c r="I6" s="168" t="s">
+      <c r="E6" s="202"/>
+      <c r="F6" s="202"/>
+      <c r="G6" s="202"/>
+      <c r="H6" s="203"/>
+      <c r="I6" s="204" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="169"/>
-      <c r="K6" s="249" t="s">
-        <v>177</v>
-      </c>
-      <c r="L6" s="248"/>
-      <c r="M6" s="247"/>
+      <c r="J6" s="205"/>
+      <c r="K6" s="218" t="s">
+        <v>168</v>
+      </c>
+      <c r="L6" s="219"/>
+      <c r="M6" s="220"/>
       <c r="N6" s="31" t="s">
         <v>26</v>
       </c>
@@ -43620,24 +43800,24 @@
       <c r="N7" s="63"/>
     </row>
     <row r="8" spans="2:14" ht="14.25" thickBot="1">
-      <c r="B8" s="170" t="s">
+      <c r="B8" s="206" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="171"/>
-      <c r="D8" s="172" t="str">
+      <c r="C8" s="207"/>
+      <c r="D8" s="208" t="str">
         <f>'REST API list'!J4</f>
         <v>/v1/operations/{operation_id}</v>
       </c>
-      <c r="E8" s="172"/>
-      <c r="F8" s="172"/>
-      <c r="G8" s="172"/>
-      <c r="H8" s="172"/>
-      <c r="I8" s="172"/>
-      <c r="J8" s="172"/>
-      <c r="K8" s="172"/>
-      <c r="L8" s="172"/>
-      <c r="M8" s="172"/>
-      <c r="N8" s="173"/>
+      <c r="E8" s="208"/>
+      <c r="F8" s="208"/>
+      <c r="G8" s="208"/>
+      <c r="H8" s="208"/>
+      <c r="I8" s="208"/>
+      <c r="J8" s="208"/>
+      <c r="K8" s="208"/>
+      <c r="L8" s="208"/>
+      <c r="M8" s="208"/>
+      <c r="N8" s="209"/>
     </row>
     <row r="9" spans="2:14" ht="14.25" thickBot="1">
       <c r="B9" s="63"/>
@@ -43656,42 +43836,42 @@
     </row>
     <row r="10" spans="2:14" ht="14.25" thickBot="1">
       <c r="B10" s="39" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>188</v>
-      </c>
-      <c r="D10" s="157" t="s">
+        <v>179</v>
+      </c>
+      <c r="D10" s="210" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="155"/>
-      <c r="F10" s="155"/>
-      <c r="G10" s="155"/>
-      <c r="H10" s="156"/>
+      <c r="E10" s="211"/>
+      <c r="F10" s="211"/>
+      <c r="G10" s="211"/>
+      <c r="H10" s="212"/>
       <c r="I10" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="J10" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="K10" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="J10" s="40" t="s">
-        <v>189</v>
-      </c>
-      <c r="K10" s="40" t="s">
-        <v>191</v>
-      </c>
       <c r="L10" s="40" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="M10" s="40" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="N10" s="41" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="2:14" ht="14.25" thickTop="1">
-      <c r="B11" s="158" t="s">
+      <c r="B11" s="194" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="177" t="s">
+      <c r="C11" s="216" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="66" t="s">
@@ -43711,16 +43891,16 @@
         <v>42</v>
       </c>
       <c r="L11" s="68"/>
-      <c r="M11" s="263" t="s">
-        <v>200</v>
-      </c>
-      <c r="N11" s="266" t="s">
+      <c r="M11" s="137" t="s">
+        <v>191</v>
+      </c>
+      <c r="N11" s="140" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="12" spans="2:14">
-      <c r="B12" s="159"/>
-      <c r="C12" s="178"/>
+      <c r="B12" s="195"/>
+      <c r="C12" s="217"/>
       <c r="D12" s="69" t="s">
         <v>11</v>
       </c>
@@ -43738,16 +43918,16 @@
         <v>42</v>
       </c>
       <c r="L12" s="70"/>
-      <c r="M12" s="263" t="s">
-        <v>201</v>
-      </c>
-      <c r="N12" s="266" t="s">
-        <v>212</v>
+      <c r="M12" s="137" t="s">
+        <v>192</v>
+      </c>
+      <c r="N12" s="140" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="2:14" ht="40.5">
-      <c r="B13" s="159"/>
-      <c r="C13" s="178"/>
+      <c r="B13" s="195"/>
+      <c r="C13" s="217"/>
       <c r="D13" s="69" t="s">
         <v>12</v>
       </c>
@@ -43765,16 +43945,16 @@
         <v>42</v>
       </c>
       <c r="L13" s="70"/>
-      <c r="M13" s="263" t="s">
-        <v>202</v>
-      </c>
-      <c r="N13" s="267" t="s">
-        <v>213</v>
+      <c r="M13" s="137" t="s">
+        <v>193</v>
+      </c>
+      <c r="N13" s="141" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="67.5">
-      <c r="B14" s="159"/>
-      <c r="C14" s="178"/>
+      <c r="B14" s="195"/>
+      <c r="C14" s="217"/>
       <c r="D14" s="69" t="s">
         <v>13</v>
       </c>
@@ -43792,16 +43972,16 @@
         <v>42</v>
       </c>
       <c r="L14" s="70"/>
-      <c r="M14" s="263" t="s">
-        <v>203</v>
-      </c>
-      <c r="N14" s="267" t="s">
-        <v>214</v>
+      <c r="M14" s="137" t="s">
+        <v>194</v>
+      </c>
+      <c r="N14" s="141" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="27">
-      <c r="B15" s="159"/>
-      <c r="C15" s="178"/>
+      <c r="B15" s="195"/>
+      <c r="C15" s="217"/>
       <c r="D15" s="69" t="s">
         <v>14</v>
       </c>
@@ -43819,16 +43999,16 @@
         <v>42</v>
       </c>
       <c r="L15" s="70"/>
-      <c r="M15" s="263" t="s">
-        <v>204</v>
-      </c>
-      <c r="N15" s="267" t="s">
-        <v>215</v>
+      <c r="M15" s="137" t="s">
+        <v>195</v>
+      </c>
+      <c r="N15" s="141" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="2:14">
-      <c r="B16" s="159"/>
-      <c r="C16" s="178"/>
+      <c r="B16" s="195"/>
+      <c r="C16" s="217"/>
       <c r="D16" s="44" t="s">
         <v>15</v>
       </c>
@@ -43846,16 +44026,16 @@
         <v>42</v>
       </c>
       <c r="L16" s="70"/>
-      <c r="M16" s="263" t="s">
-        <v>205</v>
-      </c>
-      <c r="N16" s="267" t="s">
+      <c r="M16" s="137" t="s">
+        <v>196</v>
+      </c>
+      <c r="N16" s="141" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="17" spans="2:14">
-      <c r="B17" s="159"/>
-      <c r="C17" s="178"/>
+      <c r="B17" s="195"/>
+      <c r="C17" s="217"/>
       <c r="D17" s="43"/>
       <c r="E17" s="36" t="s">
         <v>8</v>
@@ -43873,16 +44053,16 @@
         <v>42</v>
       </c>
       <c r="L17" s="70"/>
-      <c r="M17" s="263" t="s">
-        <v>206</v>
-      </c>
-      <c r="N17" s="267" t="s">
+      <c r="M17" s="137" t="s">
+        <v>197</v>
+      </c>
+      <c r="N17" s="141" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="18" spans="2:14" ht="67.5">
-      <c r="B18" s="159"/>
-      <c r="C18" s="178"/>
+      <c r="B18" s="195"/>
+      <c r="C18" s="217"/>
       <c r="D18" s="43"/>
       <c r="E18" s="36" t="s">
         <v>9</v>
@@ -43900,16 +44080,16 @@
         <v>42</v>
       </c>
       <c r="L18" s="70"/>
-      <c r="M18" s="263" t="s">
+      <c r="M18" s="137" t="s">
+        <v>198</v>
+      </c>
+      <c r="N18" s="141" t="s">
         <v>207</v>
-      </c>
-      <c r="N18" s="267" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="54">
-      <c r="B19" s="159"/>
-      <c r="C19" s="178"/>
+      <c r="B19" s="195"/>
+      <c r="C19" s="217"/>
       <c r="D19" s="42"/>
       <c r="E19" s="36" t="s">
         <v>16</v>
@@ -43927,16 +44107,16 @@
         <v>42</v>
       </c>
       <c r="L19" s="70"/>
-      <c r="M19" s="263" t="s">
+      <c r="M19" s="137" t="s">
+        <v>199</v>
+      </c>
+      <c r="N19" s="141" t="s">
         <v>208</v>
-      </c>
-      <c r="N19" s="267" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="20" spans="2:14">
-      <c r="B20" s="159"/>
-      <c r="C20" s="178"/>
+      <c r="B20" s="195"/>
+      <c r="C20" s="217"/>
       <c r="D20" s="44" t="s">
         <v>17</v>
       </c>
@@ -43954,16 +44134,16 @@
         <v>42</v>
       </c>
       <c r="L20" s="70"/>
-      <c r="M20" s="263" t="s">
+      <c r="M20" s="137" t="s">
+        <v>200</v>
+      </c>
+      <c r="N20" s="141" t="s">
         <v>209</v>
-      </c>
-      <c r="N20" s="267" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="21" spans="2:14" ht="40.5">
-      <c r="B21" s="159"/>
-      <c r="C21" s="178"/>
+      <c r="B21" s="195"/>
+      <c r="C21" s="217"/>
       <c r="D21" s="43"/>
       <c r="E21" s="36" t="s">
         <v>28</v>
@@ -43972,7 +44152,7 @@
       <c r="G21" s="36"/>
       <c r="H21" s="55"/>
       <c r="I21" s="38" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J21" s="38" t="s">
         <v>7</v>
@@ -43981,16 +44161,16 @@
         <v>42</v>
       </c>
       <c r="L21" s="70"/>
-      <c r="M21" s="263" t="s">
+      <c r="M21" s="137" t="s">
+        <v>201</v>
+      </c>
+      <c r="N21" s="141" t="s">
         <v>210</v>
-      </c>
-      <c r="N21" s="267" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="22" spans="2:14" s="35" customFormat="1" ht="162">
-      <c r="B22" s="159"/>
-      <c r="C22" s="178"/>
+      <c r="B22" s="195"/>
+      <c r="C22" s="217"/>
       <c r="D22" s="42"/>
       <c r="E22" s="71" t="s">
         <v>16</v>
@@ -44008,16 +44188,16 @@
         <v>41</v>
       </c>
       <c r="L22" s="57"/>
-      <c r="M22" s="264" t="s">
+      <c r="M22" s="138" t="s">
+        <v>202</v>
+      </c>
+      <c r="N22" s="142" t="s">
         <v>211</v>
       </c>
-      <c r="N22" s="268" t="s">
-        <v>220</v>
-      </c>
     </row>
-    <row r="23" spans="2:14" s="35" customFormat="1">
-      <c r="B23" s="159"/>
-      <c r="C23" s="178"/>
+    <row r="23" spans="2:14" s="35" customFormat="1" ht="27">
+      <c r="B23" s="195"/>
+      <c r="C23" s="217"/>
       <c r="D23" s="49" t="s">
         <v>84</v>
       </c>
@@ -44037,12 +44217,16 @@
       <c r="L23" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="M23" s="243"/>
-      <c r="N23" s="259"/>
+      <c r="M23" s="265" t="s">
+        <v>243</v>
+      </c>
+      <c r="N23" s="266" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="24" spans="2:14" s="35" customFormat="1">
-      <c r="B24" s="159"/>
-      <c r="C24" s="178"/>
+      <c r="B24" s="195"/>
+      <c r="C24" s="217"/>
       <c r="D24" s="43"/>
       <c r="E24" s="47" t="s">
         <v>70</v>
@@ -44060,12 +44244,16 @@
         <v>86</v>
       </c>
       <c r="L24" s="57"/>
-      <c r="M24" s="262"/>
-      <c r="N24" s="245"/>
+      <c r="M24" s="50" t="s">
+        <v>245</v>
+      </c>
+      <c r="N24" s="267" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="25" spans="2:14" s="35" customFormat="1">
-      <c r="B25" s="159"/>
-      <c r="C25" s="178"/>
+      <c r="B25" s="195"/>
+      <c r="C25" s="217"/>
       <c r="D25" s="43"/>
       <c r="E25" s="44" t="s">
         <v>87</v>
@@ -44083,12 +44271,16 @@
         <v>86</v>
       </c>
       <c r="L25" s="57"/>
-      <c r="M25" s="254"/>
-      <c r="N25" s="258"/>
+      <c r="M25" s="38" t="s">
+        <v>247</v>
+      </c>
+      <c r="N25" s="268" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="26" spans="2:14" s="35" customFormat="1">
-      <c r="B26" s="159"/>
-      <c r="C26" s="178"/>
+      <c r="B26" s="195"/>
+      <c r="C26" s="217"/>
       <c r="D26" s="43"/>
       <c r="E26" s="43"/>
       <c r="F26" s="36" t="s">
@@ -44106,12 +44298,16 @@
         <v>86</v>
       </c>
       <c r="L26" s="57"/>
-      <c r="M26" s="254"/>
-      <c r="N26" s="258"/>
+      <c r="M26" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="N26" s="268" t="s">
+        <v>246</v>
+      </c>
     </row>
-    <row r="27" spans="2:14" s="35" customFormat="1">
-      <c r="B27" s="159"/>
-      <c r="C27" s="178"/>
+    <row r="27" spans="2:14" s="35" customFormat="1" ht="81">
+      <c r="B27" s="195"/>
+      <c r="C27" s="217"/>
       <c r="D27" s="43"/>
       <c r="E27" s="43"/>
       <c r="F27" s="36" t="s">
@@ -44129,12 +44325,16 @@
         <v>86</v>
       </c>
       <c r="L27" s="57"/>
-      <c r="M27" s="254"/>
-      <c r="N27" s="258"/>
+      <c r="M27" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>250</v>
+      </c>
     </row>
-    <row r="28" spans="2:14" s="35" customFormat="1">
-      <c r="B28" s="159"/>
-      <c r="C28" s="178"/>
+    <row r="28" spans="2:14" s="35" customFormat="1" ht="81">
+      <c r="B28" s="195"/>
+      <c r="C28" s="217"/>
       <c r="D28" s="43"/>
       <c r="E28" s="42"/>
       <c r="F28" s="36" t="s">
@@ -44152,12 +44352,16 @@
         <v>86</v>
       </c>
       <c r="L28" s="57"/>
-      <c r="M28" s="254"/>
-      <c r="N28" s="259"/>
+      <c r="M28" s="38" t="s">
+        <v>251</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="29" spans="2:14" s="35" customFormat="1">
-      <c r="B29" s="159"/>
-      <c r="C29" s="178"/>
+      <c r="B29" s="195"/>
+      <c r="C29" s="217"/>
       <c r="D29" s="43"/>
       <c r="E29" s="44" t="s">
         <v>88</v>
@@ -44166,7 +44370,7 @@
       <c r="G29" s="59"/>
       <c r="H29" s="59"/>
       <c r="I29" s="53" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="J29" s="50" t="s">
         <v>86</v>
@@ -44175,12 +44379,16 @@
         <v>65</v>
       </c>
       <c r="L29" s="57"/>
-      <c r="M29" s="262"/>
-      <c r="N29" s="245"/>
+      <c r="M29" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="N29" s="267" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="30" spans="2:14" s="35" customFormat="1">
-      <c r="B30" s="159"/>
-      <c r="C30" s="178"/>
+      <c r="B30" s="195"/>
+      <c r="C30" s="217"/>
       <c r="D30" s="43"/>
       <c r="E30" s="43"/>
       <c r="F30" s="47" t="s">
@@ -44189,7 +44397,7 @@
       <c r="G30" s="59"/>
       <c r="H30" s="59"/>
       <c r="I30" s="53" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J30" s="53" t="s">
         <v>86</v>
@@ -44198,12 +44406,14 @@
         <v>65</v>
       </c>
       <c r="L30" s="57"/>
-      <c r="M30" s="262"/>
-      <c r="N30" s="245"/>
+      <c r="M30" s="50" t="s">
+        <v>253</v>
+      </c>
+      <c r="N30" s="267"/>
     </row>
-    <row r="31" spans="2:14" s="35" customFormat="1">
-      <c r="B31" s="159"/>
-      <c r="C31" s="178"/>
+    <row r="31" spans="2:14" s="35" customFormat="1" ht="27">
+      <c r="B31" s="195"/>
+      <c r="C31" s="217"/>
       <c r="D31" s="43"/>
       <c r="E31" s="42"/>
       <c r="F31" s="47" t="s">
@@ -44221,12 +44431,16 @@
         <v>65</v>
       </c>
       <c r="L31" s="57"/>
-      <c r="M31" s="240"/>
-      <c r="N31" s="259"/>
+      <c r="M31" s="269" t="s">
+        <v>254</v>
+      </c>
+      <c r="N31" s="266" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="32" spans="2:14" s="35" customFormat="1">
-      <c r="B32" s="159"/>
-      <c r="C32" s="178"/>
+      <c r="B32" s="195"/>
+      <c r="C32" s="217"/>
       <c r="D32" s="58" t="s">
         <v>90</v>
       </c>
@@ -44244,12 +44458,16 @@
         <v>65</v>
       </c>
       <c r="L32" s="57"/>
-      <c r="M32" s="209"/>
-      <c r="N32" s="259"/>
+      <c r="M32" s="42" t="s">
+        <v>256</v>
+      </c>
+      <c r="N32" s="266" t="s">
+        <v>257</v>
+      </c>
     </row>
-    <row r="33" spans="2:14" s="35" customFormat="1">
-      <c r="B33" s="159"/>
-      <c r="C33" s="178"/>
+    <row r="33" spans="2:14" s="35" customFormat="1" ht="40.5">
+      <c r="B33" s="195"/>
+      <c r="C33" s="217"/>
       <c r="D33" s="43"/>
       <c r="E33" s="60" t="s">
         <v>91</v>
@@ -44267,12 +44485,16 @@
         <v>86</v>
       </c>
       <c r="L33" s="57"/>
-      <c r="M33" s="244"/>
-      <c r="N33" s="242"/>
+      <c r="M33" s="43" t="s">
+        <v>258</v>
+      </c>
+      <c r="N33" s="270" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="34" spans="2:14" s="35" customFormat="1">
-      <c r="B34" s="159"/>
-      <c r="C34" s="178"/>
+      <c r="B34" s="195"/>
+      <c r="C34" s="217"/>
       <c r="D34" s="43"/>
       <c r="E34" s="56" t="s">
         <v>92</v>
@@ -44290,12 +44512,16 @@
         <v>86</v>
       </c>
       <c r="L34" s="57"/>
-      <c r="M34" s="210"/>
-      <c r="N34" s="259"/>
+      <c r="M34" s="53" t="s">
+        <v>260</v>
+      </c>
+      <c r="N34" s="266" t="s">
+        <v>246</v>
+      </c>
     </row>
-    <row r="35" spans="2:14" s="35" customFormat="1">
-      <c r="B35" s="159"/>
-      <c r="C35" s="178"/>
+    <row r="35" spans="2:14" s="35" customFormat="1" ht="27">
+      <c r="B35" s="195"/>
+      <c r="C35" s="217"/>
       <c r="D35" s="43"/>
       <c r="E35" s="51" t="s">
         <v>84</v>
@@ -44315,12 +44541,16 @@
       <c r="L35" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="M35" s="246"/>
-      <c r="N35" s="245"/>
+      <c r="M35" s="271" t="s">
+        <v>261</v>
+      </c>
+      <c r="N35" s="267" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="36" spans="2:14" s="35" customFormat="1">
-      <c r="B36" s="159"/>
-      <c r="C36" s="178"/>
+      <c r="B36" s="195"/>
+      <c r="C36" s="217"/>
       <c r="D36" s="43"/>
       <c r="E36" s="43"/>
       <c r="F36" s="47" t="s">
@@ -44338,12 +44568,16 @@
         <v>86</v>
       </c>
       <c r="L36" s="57"/>
-      <c r="M36" s="262"/>
-      <c r="N36" s="245"/>
+      <c r="M36" s="50" t="s">
+        <v>263</v>
+      </c>
+      <c r="N36" s="267" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="37" spans="2:14" s="35" customFormat="1">
-      <c r="B37" s="159"/>
-      <c r="C37" s="178"/>
+      <c r="B37" s="195"/>
+      <c r="C37" s="217"/>
       <c r="D37" s="43"/>
       <c r="E37" s="43"/>
       <c r="F37" s="44" t="s">
@@ -44361,12 +44595,16 @@
         <v>86</v>
       </c>
       <c r="L37" s="57"/>
-      <c r="M37" s="254"/>
-      <c r="N37" s="258"/>
+      <c r="M37" s="38" t="s">
+        <v>247</v>
+      </c>
+      <c r="N37" s="268" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="38" spans="2:14" s="35" customFormat="1">
-      <c r="B38" s="159"/>
-      <c r="C38" s="178"/>
+      <c r="B38" s="195"/>
+      <c r="C38" s="217"/>
       <c r="D38" s="43"/>
       <c r="E38" s="43"/>
       <c r="F38" s="43"/>
@@ -44384,12 +44622,16 @@
         <v>86</v>
       </c>
       <c r="L38" s="57"/>
-      <c r="M38" s="254"/>
-      <c r="N38" s="258"/>
+      <c r="M38" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="N38" s="268" t="s">
+        <v>246</v>
+      </c>
     </row>
-    <row r="39" spans="2:14" s="35" customFormat="1">
-      <c r="B39" s="159"/>
-      <c r="C39" s="178"/>
+    <row r="39" spans="2:14" s="35" customFormat="1" ht="81">
+      <c r="B39" s="195"/>
+      <c r="C39" s="217"/>
       <c r="D39" s="43"/>
       <c r="E39" s="43"/>
       <c r="F39" s="43"/>
@@ -44407,12 +44649,16 @@
         <v>86</v>
       </c>
       <c r="L39" s="57"/>
-      <c r="M39" s="254"/>
-      <c r="N39" s="258"/>
+      <c r="M39" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="N39" s="268" t="s">
+        <v>250</v>
+      </c>
     </row>
-    <row r="40" spans="2:14" s="35" customFormat="1">
-      <c r="B40" s="159"/>
-      <c r="C40" s="178"/>
+    <row r="40" spans="2:14" s="35" customFormat="1" ht="81">
+      <c r="B40" s="195"/>
+      <c r="C40" s="217"/>
       <c r="D40" s="43"/>
       <c r="E40" s="43"/>
       <c r="F40" s="42"/>
@@ -44430,12 +44676,16 @@
         <v>65</v>
       </c>
       <c r="L40" s="57"/>
-      <c r="M40" s="254"/>
-      <c r="N40" s="259"/>
+      <c r="M40" s="38" t="s">
+        <v>251</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="41" spans="2:14" s="35" customFormat="1">
-      <c r="B41" s="159"/>
-      <c r="C41" s="178"/>
+      <c r="B41" s="195"/>
+      <c r="C41" s="217"/>
       <c r="D41" s="43"/>
       <c r="E41" s="43"/>
       <c r="F41" s="44" t="s">
@@ -44444,7 +44694,7 @@
       <c r="G41" s="46"/>
       <c r="H41" s="61"/>
       <c r="I41" s="53" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="J41" s="53" t="s">
         <v>86</v>
@@ -44453,12 +44703,16 @@
         <v>65</v>
       </c>
       <c r="L41" s="57"/>
-      <c r="M41" s="262"/>
-      <c r="N41" s="245"/>
+      <c r="M41" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="N41" s="267" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="42" spans="2:14" s="35" customFormat="1">
-      <c r="B42" s="159"/>
-      <c r="C42" s="178"/>
+      <c r="B42" s="195"/>
+      <c r="C42" s="217"/>
       <c r="D42" s="43"/>
       <c r="E42" s="43"/>
       <c r="F42" s="43"/>
@@ -44467,7 +44721,7 @@
       </c>
       <c r="H42" s="49"/>
       <c r="I42" s="43" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J42" s="53" t="s">
         <v>86</v>
@@ -44476,12 +44730,14 @@
         <v>65</v>
       </c>
       <c r="L42" s="57"/>
-      <c r="M42" s="250"/>
-      <c r="N42" s="245"/>
+      <c r="M42" s="272" t="s">
+        <v>253</v>
+      </c>
+      <c r="N42" s="267"/>
     </row>
-    <row r="43" spans="2:14" s="35" customFormat="1">
-      <c r="B43" s="159"/>
-      <c r="C43" s="178"/>
+    <row r="43" spans="2:14" s="35" customFormat="1" ht="27">
+      <c r="B43" s="195"/>
+      <c r="C43" s="217"/>
       <c r="D43" s="42"/>
       <c r="E43" s="42"/>
       <c r="F43" s="42"/>
@@ -44499,11 +44755,15 @@
         <v>65</v>
       </c>
       <c r="L43" s="57"/>
-      <c r="M43" s="240"/>
-      <c r="N43" s="259"/>
+      <c r="M43" s="269" t="s">
+        <v>254</v>
+      </c>
+      <c r="N43" s="266" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="44" spans="2:14">
-      <c r="B44" s="160" t="s">
+      <c r="B44" s="196" t="s">
         <v>88</v>
       </c>
       <c r="C44" s="32">
@@ -44536,29 +44796,35 @@
       </c>
     </row>
     <row r="45" spans="2:14" ht="14.25" thickBot="1">
-      <c r="B45" s="161"/>
-      <c r="C45" s="174" t="s">
-        <v>196</v>
-      </c>
-      <c r="D45" s="175"/>
-      <c r="E45" s="175"/>
-      <c r="F45" s="175"/>
-      <c r="G45" s="175"/>
-      <c r="H45" s="175"/>
-      <c r="I45" s="175"/>
-      <c r="J45" s="175"/>
-      <c r="K45" s="175"/>
-      <c r="L45" s="175"/>
-      <c r="M45" s="175"/>
-      <c r="N45" s="176"/>
+      <c r="B45" s="197"/>
+      <c r="C45" s="213" t="s">
+        <v>187</v>
+      </c>
+      <c r="D45" s="214"/>
+      <c r="E45" s="214"/>
+      <c r="F45" s="214"/>
+      <c r="G45" s="214"/>
+      <c r="H45" s="214"/>
+      <c r="I45" s="214"/>
+      <c r="J45" s="214"/>
+      <c r="K45" s="214"/>
+      <c r="L45" s="214"/>
+      <c r="M45" s="214"/>
+      <c r="N45" s="215"/>
     </row>
     <row r="47" spans="2:14">
       <c r="C47" s="26" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
     <mergeCell ref="B11:B43"/>
     <mergeCell ref="B44:B45"/>
     <mergeCell ref="K5:M5"/>
@@ -44570,16 +44836,10 @@
     <mergeCell ref="C45:N45"/>
     <mergeCell ref="C11:C43"/>
     <mergeCell ref="K6:M6"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="78" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="58" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="9" max="14" man="1"/>
   </rowBreaks>
@@ -44594,7 +44854,7 @@
   <dimension ref="B1:N15"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -44615,79 +44875,79 @@
   <sheetData>
     <row r="1" spans="2:14" ht="14.25" thickBot="1"/>
     <row r="2" spans="2:14">
-      <c r="B2" s="146" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="147"/>
-      <c r="D2" s="186" t="str">
+      <c r="B2" s="221" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="222"/>
+      <c r="D2" s="230" t="str">
         <f>'REST API list'!$G$5</f>
         <v>status notification</v>
       </c>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="186"/>
-      <c r="I2" s="187"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
+      <c r="E2" s="230"/>
+      <c r="F2" s="230"/>
+      <c r="G2" s="230"/>
+      <c r="H2" s="230"/>
+      <c r="I2" s="231"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
     </row>
     <row r="3" spans="2:14" ht="14.25" thickBot="1">
-      <c r="B3" s="150" t="s">
-        <v>179</v>
-      </c>
-      <c r="C3" s="151"/>
-      <c r="D3" s="188" t="str">
+      <c r="B3" s="225" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="226"/>
+      <c r="D3" s="232" t="str">
         <f>'REST API list'!$I$5</f>
         <v>PUT</v>
       </c>
-      <c r="E3" s="188"/>
-      <c r="F3" s="188"/>
-      <c r="G3" s="188"/>
-      <c r="H3" s="188"/>
-      <c r="I3" s="189"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
+      <c r="E3" s="232"/>
+      <c r="F3" s="232"/>
+      <c r="G3" s="232"/>
+      <c r="H3" s="232"/>
+      <c r="I3" s="233"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="81"/>
     </row>
     <row r="4" spans="2:14" ht="14.25" thickBot="1">
       <c r="B4" s="62"/>
       <c r="C4" s="62"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="82"/>
-      <c r="N4" s="82"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
     </row>
     <row r="5" spans="2:14" ht="14.25" thickBot="1">
-      <c r="B5" s="170" t="s">
+      <c r="B5" s="206" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="171"/>
-      <c r="D5" s="190" t="str">
+      <c r="C5" s="207"/>
+      <c r="D5" s="234" t="str">
         <f>'REST API list'!$J$5</f>
         <v>/v1/MSFcontroller/status</v>
       </c>
-      <c r="E5" s="190"/>
-      <c r="F5" s="190"/>
-      <c r="G5" s="190"/>
-      <c r="H5" s="190"/>
-      <c r="I5" s="190"/>
-      <c r="J5" s="190"/>
-      <c r="K5" s="190"/>
-      <c r="L5" s="190"/>
-      <c r="M5" s="190"/>
-      <c r="N5" s="191"/>
+      <c r="E5" s="234"/>
+      <c r="F5" s="234"/>
+      <c r="G5" s="234"/>
+      <c r="H5" s="234"/>
+      <c r="I5" s="234"/>
+      <c r="J5" s="234"/>
+      <c r="K5" s="234"/>
+      <c r="L5" s="234"/>
+      <c r="M5" s="234"/>
+      <c r="N5" s="235"/>
     </row>
     <row r="6" spans="2:14" ht="14.25" thickBot="1">
       <c r="B6" s="12"/>
@@ -44706,222 +44966,222 @@
     </row>
     <row r="7" spans="2:14" ht="14.25" thickBot="1">
       <c r="B7" s="39" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>188</v>
-      </c>
-      <c r="D7" s="179" t="s">
+        <v>179</v>
+      </c>
+      <c r="D7" s="236" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="180"/>
-      <c r="F7" s="180"/>
-      <c r="G7" s="180"/>
-      <c r="H7" s="181"/>
+      <c r="E7" s="237"/>
+      <c r="F7" s="237"/>
+      <c r="G7" s="237"/>
+      <c r="H7" s="238"/>
       <c r="I7" s="40" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="J7" s="40" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="K7" s="40" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="L7" s="40" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="M7" s="40" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="N7" s="41" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="2:14" ht="14.25" thickTop="1">
-      <c r="B8" s="159" t="s">
+      <c r="B8" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="182" t="s">
+      <c r="C8" s="239" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="83" t="s">
+      <c r="D8" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="86" t="s">
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="J8" s="86" t="s">
+      <c r="J8" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="86" t="s">
-        <v>128</v>
-      </c>
-      <c r="L8" s="96"/>
-      <c r="M8" s="86" t="s">
+      <c r="K8" s="85" t="s">
+        <v>121</v>
+      </c>
+      <c r="L8" s="95"/>
+      <c r="M8" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="N8" s="87" t="s">
+      <c r="N8" s="86" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="40.5">
-      <c r="B9" s="159"/>
-      <c r="C9" s="182"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="89" t="s">
+    <row r="9" spans="2:14" ht="54">
+      <c r="B9" s="195"/>
+      <c r="C9" s="239"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="89"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="86" t="s">
+      <c r="F9" s="88"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="86" t="s">
+      <c r="J9" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="K9" s="86" t="s">
-        <v>128</v>
-      </c>
-      <c r="L9" s="97"/>
-      <c r="M9" s="86" t="s">
-        <v>222</v>
-      </c>
-      <c r="N9" s="87" t="s">
-        <v>223</v>
+      <c r="K9" s="85" t="s">
+        <v>121</v>
+      </c>
+      <c r="L9" s="96"/>
+      <c r="M9" s="85" t="s">
+        <v>213</v>
+      </c>
+      <c r="N9" s="158" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="2:14">
-      <c r="B10" s="159"/>
-      <c r="C10" s="182"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="90" t="s">
+      <c r="B10" s="195"/>
+      <c r="C10" s="239"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="90"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="86" t="s">
+      <c r="F10" s="89"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="J10" s="86" t="s">
-        <v>126</v>
-      </c>
-      <c r="K10" s="86" t="s">
-        <v>127</v>
-      </c>
-      <c r="L10" s="97"/>
-      <c r="M10" s="86" t="s">
-        <v>224</v>
-      </c>
-      <c r="N10" s="87" t="s">
-        <v>27</v>
+      <c r="J10" s="85" t="s">
+        <v>119</v>
+      </c>
+      <c r="K10" s="85" t="s">
+        <v>120</v>
+      </c>
+      <c r="L10" s="96"/>
+      <c r="M10" s="85" t="s">
+        <v>214</v>
+      </c>
+      <c r="N10" s="86" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="2:14" ht="54">
-      <c r="B11" s="159"/>
-      <c r="C11" s="182"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="91" t="s">
+      <c r="B11" s="195"/>
+      <c r="C11" s="239"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="91"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="92" t="s">
+      <c r="F11" s="90"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="91" t="s">
         <v>53</v>
       </c>
-      <c r="J11" s="92" t="s">
+      <c r="J11" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="K11" s="86" t="s">
-        <v>129</v>
-      </c>
-      <c r="L11" s="97"/>
-      <c r="M11" s="86" t="s">
-        <v>225</v>
-      </c>
-      <c r="N11" s="87" t="s">
-        <v>226</v>
+      <c r="K11" s="85" t="s">
+        <v>122</v>
+      </c>
+      <c r="L11" s="96"/>
+      <c r="M11" s="85" t="s">
+        <v>215</v>
+      </c>
+      <c r="N11" s="86" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="2:14">
-      <c r="B12" s="160" t="s">
+      <c r="B12" s="196" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="93">
+      <c r="C12" s="92">
         <v>200</v>
       </c>
-      <c r="D12" s="94" t="s">
+      <c r="D12" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="86" t="s">
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="J12" s="86" t="s">
+      <c r="J12" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="K12" s="86" t="s">
-        <v>130</v>
-      </c>
-      <c r="L12" s="86" t="s">
-        <v>130</v>
-      </c>
-      <c r="M12" s="86" t="s">
+      <c r="K12" s="85" t="s">
+        <v>123</v>
+      </c>
+      <c r="L12" s="85" t="s">
+        <v>123</v>
+      </c>
+      <c r="M12" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="N12" s="87" t="s">
+      <c r="N12" s="86" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="13" spans="2:14" ht="14.25" thickBot="1">
-      <c r="B13" s="161"/>
-      <c r="C13" s="183" t="s">
-        <v>197</v>
-      </c>
-      <c r="D13" s="184"/>
-      <c r="E13" s="184"/>
-      <c r="F13" s="184"/>
-      <c r="G13" s="184"/>
-      <c r="H13" s="184"/>
-      <c r="I13" s="184"/>
-      <c r="J13" s="184"/>
-      <c r="K13" s="184"/>
-      <c r="L13" s="184"/>
-      <c r="M13" s="184"/>
-      <c r="N13" s="185"/>
+      <c r="B13" s="197"/>
+      <c r="C13" s="240" t="s">
+        <v>188</v>
+      </c>
+      <c r="D13" s="241"/>
+      <c r="E13" s="241"/>
+      <c r="F13" s="241"/>
+      <c r="G13" s="241"/>
+      <c r="H13" s="241"/>
+      <c r="I13" s="241"/>
+      <c r="J13" s="241"/>
+      <c r="K13" s="241"/>
+      <c r="L13" s="241"/>
+      <c r="M13" s="241"/>
+      <c r="N13" s="242"/>
     </row>
     <row r="15" spans="2:14">
       <c r="C15" s="27" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="I15" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C13:N13"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:I2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:I3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:N5"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C13:N13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="78" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="59" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -44933,7 +45193,7 @@
   <dimension ref="B1:P28"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -44955,59 +45215,59 @@
   <sheetData>
     <row r="1" spans="2:16" ht="14.25" thickBot="1"/>
     <row r="2" spans="2:16">
-      <c r="B2" s="206" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="141"/>
-      <c r="D2" s="186" t="str">
+      <c r="B2" s="260" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="189"/>
+      <c r="D2" s="230" t="str">
         <f>'REST API list'!$G$6</f>
         <v>traffic notification</v>
       </c>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="186"/>
-      <c r="I2" s="187"/>
+      <c r="E2" s="230"/>
+      <c r="F2" s="230"/>
+      <c r="G2" s="230"/>
+      <c r="H2" s="230"/>
+      <c r="I2" s="231"/>
     </row>
     <row r="3" spans="2:16" ht="14.25" thickBot="1">
-      <c r="B3" s="207" t="s">
-        <v>179</v>
-      </c>
-      <c r="C3" s="208"/>
-      <c r="D3" s="188" t="str">
+      <c r="B3" s="261" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="262"/>
+      <c r="D3" s="232" t="str">
         <f>'REST API list'!$I$6</f>
         <v>PUT</v>
       </c>
-      <c r="E3" s="188"/>
-      <c r="F3" s="188"/>
-      <c r="G3" s="188"/>
-      <c r="H3" s="188"/>
-      <c r="I3" s="189"/>
+      <c r="E3" s="232"/>
+      <c r="F3" s="232"/>
+      <c r="G3" s="232"/>
+      <c r="H3" s="232"/>
+      <c r="I3" s="233"/>
     </row>
     <row r="4" spans="2:16" ht="14.25" thickBot="1">
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
     </row>
     <row r="5" spans="2:16" ht="14.25" thickBot="1">
-      <c r="B5" s="197" t="s">
+      <c r="B5" s="251" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="198"/>
-      <c r="D5" s="199"/>
-      <c r="E5" s="200" t="str">
+      <c r="C5" s="252"/>
+      <c r="D5" s="253"/>
+      <c r="E5" s="254" t="str">
         <f>'REST API list'!$J$6</f>
         <v>/v1/MSFcontroller/traffic</v>
       </c>
-      <c r="F5" s="201"/>
-      <c r="G5" s="201"/>
-      <c r="H5" s="201"/>
-      <c r="I5" s="201"/>
-      <c r="J5" s="201"/>
-      <c r="K5" s="201"/>
-      <c r="L5" s="201"/>
-      <c r="M5" s="201"/>
-      <c r="N5" s="201"/>
-      <c r="O5" s="202"/>
+      <c r="F5" s="255"/>
+      <c r="G5" s="255"/>
+      <c r="H5" s="255"/>
+      <c r="I5" s="255"/>
+      <c r="J5" s="255"/>
+      <c r="K5" s="255"/>
+      <c r="L5" s="255"/>
+      <c r="M5" s="255"/>
+      <c r="N5" s="255"/>
+      <c r="O5" s="256"/>
       <c r="P5" s="11"/>
     </row>
     <row r="6" spans="2:16" ht="14.25" thickBot="1">
@@ -45016,579 +45276,597 @@
     </row>
     <row r="7" spans="2:16" ht="14.25" thickBot="1">
       <c r="B7" s="23" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C7" s="77" t="s">
-        <v>188</v>
-      </c>
-      <c r="D7" s="203" t="s">
+        <v>179</v>
+      </c>
+      <c r="D7" s="257" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="204"/>
-      <c r="F7" s="204"/>
-      <c r="G7" s="204"/>
-      <c r="H7" s="204"/>
-      <c r="I7" s="204"/>
-      <c r="J7" s="205"/>
+      <c r="E7" s="258"/>
+      <c r="F7" s="258"/>
+      <c r="G7" s="258"/>
+      <c r="H7" s="258"/>
+      <c r="I7" s="258"/>
+      <c r="J7" s="259"/>
       <c r="K7" s="24" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="L7" s="24" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="M7" s="24" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="N7" s="24" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="O7" s="24" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="P7" s="25" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="14.25" thickTop="1">
-      <c r="B8" s="144" t="s">
+      <c r="B8" s="248" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="192" t="s">
+      <c r="C8" s="243" t="s">
         <v>96</v>
       </c>
-      <c r="D8" s="109" t="s">
-        <v>131</v>
-      </c>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="110"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="111"/>
-      <c r="K8" s="86" t="s">
+      <c r="D8" s="108" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="109"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="L8" s="100" t="s">
+      <c r="L8" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="M8" s="86" t="s">
+      <c r="M8" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="N8" s="101"/>
-      <c r="O8" s="86" t="s">
-        <v>249</v>
-      </c>
-      <c r="P8" s="102" t="s">
+      <c r="N8" s="100"/>
+      <c r="O8" s="85" t="s">
+        <v>238</v>
+      </c>
+      <c r="P8" s="101" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="9" spans="2:16">
-      <c r="B9" s="129"/>
-      <c r="C9" s="193"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="83" t="s">
+      <c r="B9" s="249"/>
+      <c r="C9" s="244"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="86" t="s">
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="85" t="s">
         <v>98</v>
       </c>
-      <c r="L9" s="86" t="s">
+      <c r="L9" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="M9" s="99" t="s">
+      <c r="M9" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="N9" s="99" t="s">
-        <v>101</v>
-      </c>
-      <c r="O9" s="86" t="s">
-        <v>250</v>
-      </c>
-      <c r="P9" s="102" t="s">
+      <c r="N9" s="98" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" s="85" t="s">
+        <v>239</v>
+      </c>
+      <c r="P9" s="101" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="2:16" s="98" customFormat="1">
-      <c r="B10" s="129"/>
-      <c r="C10" s="193"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="94" t="s">
+    <row r="10" spans="2:16" s="97" customFormat="1">
+      <c r="B10" s="249"/>
+      <c r="C10" s="244"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="93" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="84"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="86" t="s">
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="L10" s="86" t="s">
+      <c r="L10" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="M10" s="99" t="s">
+      <c r="M10" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="N10" s="101"/>
-      <c r="O10" s="86" t="s">
-        <v>251</v>
-      </c>
-      <c r="P10" s="102" t="s">
+      <c r="N10" s="100"/>
+      <c r="O10" s="85" t="s">
+        <v>240</v>
+      </c>
+      <c r="P10" s="101" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="11" spans="2:16">
-      <c r="B11" s="129"/>
-      <c r="C11" s="193"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="90" t="s">
+      <c r="B11" s="249"/>
+      <c r="C11" s="244"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="84"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="86" t="s">
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="L11" s="86" t="s">
+      <c r="L11" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="M11" s="99" t="s">
+      <c r="M11" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="N11" s="101"/>
-      <c r="O11" s="283" t="s">
-        <v>234</v>
-      </c>
-      <c r="P11" s="102" t="s">
+      <c r="N11" s="100"/>
+      <c r="O11" s="152" t="s">
+        <v>224</v>
+      </c>
+      <c r="P11" s="101" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="12" spans="2:16">
-      <c r="B12" s="129"/>
-      <c r="C12" s="193"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="90" t="s">
+      <c r="B12" s="249"/>
+      <c r="C12" s="244"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="G12" s="84"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="85"/>
-      <c r="K12" s="86" t="s">
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="L12" s="86" t="s">
+      <c r="L12" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="M12" s="99" t="s">
+      <c r="M12" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="N12" s="101"/>
-      <c r="O12" s="283" t="s">
-        <v>235</v>
-      </c>
-      <c r="P12" s="102" t="s">
+      <c r="N12" s="100"/>
+      <c r="O12" s="152" t="s">
+        <v>225</v>
+      </c>
+      <c r="P12" s="101" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="13" spans="2:16" ht="40.5">
-      <c r="B13" s="129"/>
-      <c r="C13" s="193"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="90" t="s">
+      <c r="B13" s="249"/>
+      <c r="C13" s="244"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="85"/>
-      <c r="K13" s="86" t="s">
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="L13" s="86" t="s">
+      <c r="L13" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="M13" s="99" t="s">
+      <c r="M13" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="N13" s="101"/>
-      <c r="O13" s="284" t="s">
-        <v>236</v>
-      </c>
-      <c r="P13" s="285" t="s">
-        <v>237</v>
+      <c r="N13" s="100"/>
+      <c r="O13" s="153" t="s">
+        <v>226</v>
+      </c>
+      <c r="P13" s="154" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="2:16">
-      <c r="B14" s="129"/>
-      <c r="C14" s="193"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="90" t="s">
+      <c r="B14" s="249"/>
+      <c r="C14" s="244"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="85"/>
-      <c r="K14" s="86" t="s">
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="L14" s="86" t="s">
+      <c r="L14" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="M14" s="92" t="s">
+      <c r="M14" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="N14" s="101"/>
-      <c r="O14" s="86" t="s">
+      <c r="N14" s="100"/>
+      <c r="O14" s="85" t="s">
         <v>79</v>
       </c>
-      <c r="P14" s="102" t="s">
+      <c r="P14" s="101" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="2:16">
-      <c r="B15" s="129"/>
-      <c r="C15" s="193"/>
-      <c r="D15" s="104" t="s">
+      <c r="B15" s="249"/>
+      <c r="C15" s="244"/>
+      <c r="D15" s="103" t="s">
         <v>80</v>
       </c>
-      <c r="E15" s="84"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="85"/>
-      <c r="K15" s="86" t="s">
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="L15" s="92" t="s">
+      <c r="L15" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="M15" s="86" t="s">
+      <c r="M15" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="N15" s="101"/>
-      <c r="O15" s="284" t="s">
-        <v>252</v>
-      </c>
-      <c r="P15" s="102" t="s">
+      <c r="N15" s="100"/>
+      <c r="O15" s="153" t="s">
+        <v>241</v>
+      </c>
+      <c r="P15" s="101" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="16" spans="2:16">
-      <c r="B16" s="129"/>
-      <c r="C16" s="193"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="105" t="s">
-        <v>102</v>
-      </c>
-      <c r="F16" s="84"/>
-      <c r="G16" s="84"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="85"/>
-      <c r="K16" s="86" t="s">
+      <c r="B16" s="249"/>
+      <c r="C16" s="244"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="104" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" s="83"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="85" t="s">
         <v>98</v>
       </c>
-      <c r="L16" s="86" t="s">
+      <c r="L16" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="M16" s="99" t="s">
+      <c r="M16" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="N16" s="99" t="s">
+      <c r="N16" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="O16" s="86" t="s">
-        <v>253</v>
-      </c>
-      <c r="P16" s="102" t="s">
+      <c r="O16" s="85" t="s">
+        <v>242</v>
+      </c>
+      <c r="P16" s="101" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="17" spans="2:16">
-      <c r="B17" s="129"/>
-      <c r="C17" s="193"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="94" t="s">
+      <c r="B17" s="249"/>
+      <c r="C17" s="244"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="93" t="s">
         <v>70</v>
       </c>
-      <c r="G17" s="84"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="85"/>
-      <c r="K17" s="86" t="s">
+      <c r="G17" s="83"/>
+      <c r="H17" s="83"/>
+      <c r="I17" s="83"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="L17" s="86" t="s">
+      <c r="L17" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="M17" s="99" t="s">
+      <c r="M17" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="N17" s="101"/>
-      <c r="O17" s="86" t="s">
-        <v>251</v>
-      </c>
-      <c r="P17" s="102" t="s">
+      <c r="N17" s="100"/>
+      <c r="O17" s="85" t="s">
+        <v>240</v>
+      </c>
+      <c r="P17" s="101" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="18" spans="2:16" ht="40.5">
-      <c r="B18" s="129"/>
-      <c r="C18" s="193"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="94" t="s">
+      <c r="B18" s="249"/>
+      <c r="C18" s="244"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="93" t="s">
         <v>81</v>
       </c>
-      <c r="G18" s="84"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="84"/>
-      <c r="J18" s="85"/>
-      <c r="K18" s="86" t="s">
+      <c r="G18" s="83"/>
+      <c r="H18" s="83"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="L18" s="86" t="s">
+      <c r="L18" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="M18" s="92" t="s">
+      <c r="M18" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="N18" s="101"/>
-      <c r="O18" s="286" t="s">
-        <v>242</v>
-      </c>
-      <c r="P18" s="287" t="s">
-        <v>243</v>
+      <c r="N18" s="100"/>
+      <c r="O18" s="155" t="s">
+        <v>232</v>
+      </c>
+      <c r="P18" s="156" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="2:16" ht="40.5">
-      <c r="B19" s="129"/>
-      <c r="C19" s="193"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="106"/>
-      <c r="F19" s="94" t="s">
+      <c r="B19" s="249"/>
+      <c r="C19" s="244"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="93" t="s">
         <v>82</v>
       </c>
-      <c r="G19" s="84"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="85"/>
-      <c r="K19" s="86" t="s">
+      <c r="G19" s="83"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="84"/>
+      <c r="K19" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="L19" s="92" t="s">
+      <c r="L19" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="M19" s="86" t="s">
+      <c r="M19" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="N19" s="101"/>
-      <c r="O19" s="288" t="s">
-        <v>244</v>
-      </c>
-      <c r="P19" s="289" t="s">
-        <v>245</v>
+      <c r="N19" s="100"/>
+      <c r="O19" s="157" t="s">
+        <v>234</v>
+      </c>
+      <c r="P19" s="158" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="2:16">
-      <c r="B20" s="129"/>
-      <c r="C20" s="193"/>
-      <c r="D20" s="257" t="s">
+      <c r="B20" s="249"/>
+      <c r="C20" s="244"/>
+      <c r="D20" s="103" t="s">
         <v>83</v>
       </c>
-      <c r="E20" s="260"/>
-      <c r="F20" s="260"/>
-      <c r="G20" s="260"/>
-      <c r="H20" s="260"/>
-      <c r="I20" s="260"/>
-      <c r="J20" s="292"/>
-      <c r="K20" s="294" t="s">
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="83"/>
+      <c r="J20" s="84"/>
+      <c r="K20" s="157" t="s">
         <v>63</v>
       </c>
-      <c r="L20" s="293" t="s">
+      <c r="L20" s="143" t="s">
         <v>41</v>
       </c>
-      <c r="M20" s="294" t="s">
+      <c r="M20" s="157" t="s">
         <v>65</v>
       </c>
-      <c r="N20" s="253"/>
-      <c r="O20" s="294"/>
-      <c r="P20" s="255" t="s">
-        <v>247</v>
+      <c r="N20" s="106"/>
+      <c r="O20" s="263" t="s">
+        <v>267</v>
+      </c>
+      <c r="P20" s="147" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="2:16">
-      <c r="B21" s="129"/>
-      <c r="C21" s="193"/>
-      <c r="D21" s="295"/>
-      <c r="E21" s="251" t="s">
+      <c r="B21" s="249"/>
+      <c r="C21" s="244"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="F21" s="260"/>
-      <c r="G21" s="260"/>
-      <c r="H21" s="260"/>
-      <c r="I21" s="260"/>
-      <c r="J21" s="292"/>
-      <c r="K21" s="294" t="s">
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="83"/>
+      <c r="J21" s="84"/>
+      <c r="K21" s="157" t="s">
         <v>98</v>
       </c>
-      <c r="L21" s="294" t="s">
+      <c r="L21" s="157" t="s">
         <v>65</v>
       </c>
-      <c r="M21" s="291" t="s">
+      <c r="M21" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="N21" s="294" t="s">
+      <c r="N21" s="157" t="s">
         <v>65</v>
       </c>
-      <c r="O21" s="294"/>
-      <c r="P21" s="255"/>
+      <c r="O21" s="263" t="s">
+        <v>269</v>
+      </c>
+      <c r="P21" s="147" t="s">
+        <v>270</v>
+      </c>
     </row>
-    <row r="22" spans="2:16" s="80" customFormat="1">
-      <c r="B22" s="129"/>
-      <c r="C22" s="193"/>
-      <c r="D22" s="295"/>
-      <c r="E22" s="295"/>
-      <c r="F22" s="260" t="s">
-        <v>109</v>
-      </c>
-      <c r="G22" s="260"/>
-      <c r="H22" s="260"/>
-      <c r="I22" s="260"/>
-      <c r="J22" s="292"/>
-      <c r="K22" s="294" t="s">
-        <v>108</v>
-      </c>
-      <c r="L22" s="294" t="s">
+    <row r="22" spans="2:16" s="80" customFormat="1" ht="27">
+      <c r="B22" s="249"/>
+      <c r="C22" s="244"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="83" t="s">
+        <v>107</v>
+      </c>
+      <c r="G22" s="83"/>
+      <c r="H22" s="83"/>
+      <c r="I22" s="83"/>
+      <c r="J22" s="84"/>
+      <c r="K22" s="157" t="s">
+        <v>106</v>
+      </c>
+      <c r="L22" s="157" t="s">
         <v>65</v>
       </c>
-      <c r="M22" s="291" t="s">
+      <c r="M22" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="N22" s="256"/>
-      <c r="O22" s="294"/>
-      <c r="P22" s="290"/>
+      <c r="N22" s="100"/>
+      <c r="O22" s="263" t="s">
+        <v>271</v>
+      </c>
+      <c r="P22" s="158" t="s">
+        <v>272</v>
+      </c>
     </row>
-    <row r="23" spans="2:16" s="116" customFormat="1">
-      <c r="B23" s="129"/>
-      <c r="C23" s="193"/>
-      <c r="D23" s="295"/>
-      <c r="E23" s="295"/>
-      <c r="F23" s="260" t="s">
+    <row r="23" spans="2:16" s="115" customFormat="1">
+      <c r="B23" s="249"/>
+      <c r="C23" s="244"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="G23" s="260"/>
-      <c r="H23" s="260"/>
-      <c r="I23" s="260"/>
-      <c r="J23" s="292"/>
-      <c r="K23" s="294" t="s">
+      <c r="G23" s="83"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="83"/>
+      <c r="J23" s="84"/>
+      <c r="K23" s="157" t="s">
         <v>64</v>
       </c>
-      <c r="L23" s="294" t="s">
+      <c r="L23" s="157" t="s">
         <v>65</v>
       </c>
-      <c r="M23" s="291" t="s">
+      <c r="M23" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="N23" s="256"/>
-      <c r="O23" s="294"/>
-      <c r="P23" s="255"/>
+      <c r="N23" s="100"/>
+      <c r="O23" s="263" t="s">
+        <v>273</v>
+      </c>
+      <c r="P23" s="158" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="24" spans="2:16">
-      <c r="B24" s="145"/>
-      <c r="C24" s="194"/>
-      <c r="D24" s="294"/>
-      <c r="E24" s="294"/>
-      <c r="F24" s="260" t="s">
+      <c r="B24" s="250"/>
+      <c r="C24" s="245"/>
+      <c r="D24" s="157"/>
+      <c r="E24" s="157"/>
+      <c r="F24" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="G24" s="260"/>
-      <c r="H24" s="260"/>
-      <c r="I24" s="260"/>
-      <c r="J24" s="292"/>
-      <c r="K24" s="294" t="s">
-        <v>133</v>
-      </c>
-      <c r="L24" s="294" t="s">
+      <c r="G24" s="83"/>
+      <c r="H24" s="83"/>
+      <c r="I24" s="83"/>
+      <c r="J24" s="84"/>
+      <c r="K24" s="157" t="s">
+        <v>126</v>
+      </c>
+      <c r="L24" s="157" t="s">
         <v>65</v>
       </c>
-      <c r="M24" s="293" t="s">
+      <c r="M24" s="143" t="s">
         <v>41</v>
       </c>
-      <c r="N24" s="293" t="s">
-        <v>101</v>
-      </c>
-      <c r="O24" s="294"/>
-      <c r="P24" s="255"/>
+      <c r="N24" s="143" t="s">
+        <v>99</v>
+      </c>
+      <c r="O24" s="263" t="s">
+        <v>274</v>
+      </c>
+      <c r="P24" s="158" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="25" spans="2:16">
-      <c r="B25" s="160" t="s">
+      <c r="B25" s="196" t="s">
         <v>88</v>
       </c>
-      <c r="C25" s="93">
+      <c r="C25" s="92">
         <v>200</v>
       </c>
-      <c r="D25" s="94" t="s">
+      <c r="D25" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="95"/>
-      <c r="F25" s="95"/>
-      <c r="G25" s="95"/>
-      <c r="H25" s="95"/>
-      <c r="I25" s="108"/>
-      <c r="J25" s="85"/>
-      <c r="K25" s="86" t="s">
+      <c r="E25" s="94"/>
+      <c r="F25" s="94"/>
+      <c r="G25" s="94"/>
+      <c r="H25" s="94"/>
+      <c r="I25" s="107"/>
+      <c r="J25" s="84"/>
+      <c r="K25" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="L25" s="86" t="s">
+      <c r="L25" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="M25" s="86" t="s">
+      <c r="M25" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="N25" s="86" t="s">
+      <c r="N25" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="O25" s="86" t="s">
+      <c r="O25" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="P25" s="87" t="s">
+      <c r="P25" s="86" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="26" spans="2:16" ht="14.25" thickBot="1">
-      <c r="B26" s="161"/>
-      <c r="C26" s="195" t="s">
-        <v>197</v>
-      </c>
-      <c r="D26" s="196"/>
-      <c r="E26" s="196"/>
-      <c r="F26" s="196"/>
-      <c r="G26" s="196"/>
-      <c r="H26" s="196"/>
-      <c r="I26" s="196"/>
-      <c r="J26" s="196"/>
-      <c r="K26" s="196"/>
-      <c r="L26" s="196"/>
-      <c r="M26" s="196"/>
-      <c r="N26" s="196"/>
-      <c r="O26" s="196"/>
-      <c r="P26" s="196"/>
+      <c r="B26" s="197"/>
+      <c r="C26" s="246" t="s">
+        <v>188</v>
+      </c>
+      <c r="D26" s="247"/>
+      <c r="E26" s="247"/>
+      <c r="F26" s="247"/>
+      <c r="G26" s="247"/>
+      <c r="H26" s="247"/>
+      <c r="I26" s="247"/>
+      <c r="J26" s="247"/>
+      <c r="K26" s="247"/>
+      <c r="L26" s="247"/>
+      <c r="M26" s="247"/>
+      <c r="N26" s="247"/>
+      <c r="O26" s="247"/>
+      <c r="P26" s="247"/>
     </row>
     <row r="27" spans="2:16">
       <c r="B27" s="76"/>
@@ -45607,7 +45885,7 @@
     <row r="28" spans="2:16">
       <c r="B28" s="76"/>
       <c r="C28" s="76" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D28" s="76"/>
       <c r="E28" s="76"/>
@@ -45636,8 +45914,8 @@
     <mergeCell ref="B3:C3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="72" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="54" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="6" max="16" man="1"/>
     <brk id="26" max="16" man="1"/>
@@ -45650,10 +45928,10 @@
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:P41"/>
+  <dimension ref="B1:P46"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -45676,59 +45954,59 @@
   <sheetData>
     <row r="1" spans="2:16" ht="14.25" thickBot="1"/>
     <row r="2" spans="2:16">
-      <c r="B2" s="206" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="141"/>
-      <c r="D2" s="186" t="str">
+      <c r="B2" s="260" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="189"/>
+      <c r="D2" s="230" t="str">
         <f>'REST API list'!$G$7</f>
         <v>failure notification</v>
       </c>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="186"/>
-      <c r="I2" s="187"/>
+      <c r="E2" s="230"/>
+      <c r="F2" s="230"/>
+      <c r="G2" s="230"/>
+      <c r="H2" s="230"/>
+      <c r="I2" s="231"/>
     </row>
     <row r="3" spans="2:16" ht="14.25" thickBot="1">
-      <c r="B3" s="207" t="s">
-        <v>179</v>
-      </c>
-      <c r="C3" s="208"/>
-      <c r="D3" s="188" t="str">
+      <c r="B3" s="261" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="262"/>
+      <c r="D3" s="232" t="str">
         <f>'REST API list'!$I$7</f>
         <v>PUT</v>
       </c>
-      <c r="E3" s="188"/>
-      <c r="F3" s="188"/>
-      <c r="G3" s="188"/>
-      <c r="H3" s="188"/>
-      <c r="I3" s="189"/>
+      <c r="E3" s="232"/>
+      <c r="F3" s="232"/>
+      <c r="G3" s="232"/>
+      <c r="H3" s="232"/>
+      <c r="I3" s="233"/>
     </row>
     <row r="4" spans="2:16" ht="14.25" thickBot="1">
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
     </row>
     <row r="5" spans="2:16" ht="14.25" thickBot="1">
-      <c r="B5" s="197" t="s">
+      <c r="B5" s="251" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="198"/>
-      <c r="D5" s="199"/>
-      <c r="E5" s="200" t="str">
+      <c r="C5" s="252"/>
+      <c r="D5" s="253"/>
+      <c r="E5" s="254" t="str">
         <f>'REST API list'!$J$7</f>
         <v>/v1/MSFcontroller/failure_status</v>
       </c>
-      <c r="F5" s="201"/>
-      <c r="G5" s="201"/>
-      <c r="H5" s="201"/>
-      <c r="I5" s="201"/>
-      <c r="J5" s="201"/>
-      <c r="K5" s="201"/>
-      <c r="L5" s="201"/>
-      <c r="M5" s="201"/>
-      <c r="N5" s="201"/>
-      <c r="O5" s="202"/>
+      <c r="F5" s="255"/>
+      <c r="G5" s="255"/>
+      <c r="H5" s="255"/>
+      <c r="I5" s="255"/>
+      <c r="J5" s="255"/>
+      <c r="K5" s="255"/>
+      <c r="L5" s="255"/>
+      <c r="M5" s="255"/>
+      <c r="N5" s="255"/>
+      <c r="O5" s="256"/>
       <c r="P5" s="11"/>
     </row>
     <row r="6" spans="2:16" ht="14.25" thickBot="1">
@@ -45737,977 +46015,1166 @@
     </row>
     <row r="7" spans="2:16" ht="14.25" thickBot="1">
       <c r="B7" s="23" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C7" s="79" t="s">
-        <v>188</v>
-      </c>
-      <c r="D7" s="203" t="s">
+        <v>179</v>
+      </c>
+      <c r="D7" s="257" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="204"/>
-      <c r="F7" s="204"/>
-      <c r="G7" s="204"/>
-      <c r="H7" s="204"/>
-      <c r="I7" s="204"/>
-      <c r="J7" s="205"/>
+      <c r="E7" s="258"/>
+      <c r="F7" s="258"/>
+      <c r="G7" s="258"/>
+      <c r="H7" s="258"/>
+      <c r="I7" s="258"/>
+      <c r="J7" s="259"/>
       <c r="K7" s="24" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="L7" s="24" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="M7" s="24" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="N7" s="24" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="O7" s="24" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="P7" s="25" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="14.25" thickTop="1">
-      <c r="B8" s="144" t="s">
+      <c r="B8" s="248" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="192" t="s">
-        <v>103</v>
-      </c>
-      <c r="D8" s="109" t="s">
-        <v>113</v>
-      </c>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="110"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="111"/>
-      <c r="K8" s="86" t="s">
+      <c r="C8" s="243" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="108" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" s="109"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="L8" s="86" t="s">
+      <c r="L8" s="85" t="s">
         <v>94</v>
       </c>
-      <c r="M8" s="86" t="s">
+      <c r="M8" s="85" t="s">
         <v>95</v>
       </c>
-      <c r="N8" s="112"/>
-      <c r="O8" s="269" t="s">
-        <v>248</v>
-      </c>
-      <c r="P8" s="113" t="s">
-        <v>111</v>
+      <c r="N8" s="111"/>
+      <c r="O8" s="143" t="s">
+        <v>237</v>
+      </c>
+      <c r="P8" s="112" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="2:16">
-      <c r="B9" s="129"/>
-      <c r="C9" s="193"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="83" t="s">
-        <v>114</v>
-      </c>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="86" t="s">
+      <c r="B9" s="249"/>
+      <c r="C9" s="244"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="85" t="s">
         <v>98</v>
       </c>
-      <c r="L9" s="86" t="s">
+      <c r="L9" s="85" t="s">
         <v>94</v>
       </c>
-      <c r="M9" s="86" t="s">
+      <c r="M9" s="85" t="s">
         <v>95</v>
       </c>
-      <c r="N9" s="86" t="s">
+      <c r="N9" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="O9" s="265" t="s">
-        <v>229</v>
-      </c>
-      <c r="P9" s="270" t="s">
-        <v>233</v>
+      <c r="O9" s="139" t="s">
+        <v>219</v>
+      </c>
+      <c r="P9" s="144" t="s">
+        <v>223</v>
       </c>
     </row>
-    <row r="10" spans="2:16" s="98" customFormat="1">
-      <c r="B10" s="129"/>
-      <c r="C10" s="193"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="94" t="s">
+    <row r="10" spans="2:16" s="97" customFormat="1">
+      <c r="B10" s="249"/>
+      <c r="C10" s="244"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="93" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="84"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="86" t="s">
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="L10" s="86" t="s">
+      <c r="L10" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="M10" s="86" t="s">
+      <c r="M10" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="N10" s="101"/>
-      <c r="O10" s="271" t="s">
-        <v>230</v>
-      </c>
-      <c r="P10" s="102" t="s">
-        <v>111</v>
+      <c r="N10" s="100"/>
+      <c r="O10" s="145" t="s">
+        <v>220</v>
+      </c>
+      <c r="P10" s="101" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="2:16">
-      <c r="B11" s="129"/>
-      <c r="C11" s="193"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="84" t="s">
-        <v>115</v>
-      </c>
-      <c r="G11" s="84"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="86" t="s">
+      <c r="B11" s="249"/>
+      <c r="C11" s="244"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="83" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="L11" s="86" t="s">
+      <c r="L11" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="M11" s="86" t="s">
+      <c r="M11" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="N11" s="101"/>
-      <c r="O11" s="271" t="s">
-        <v>234</v>
-      </c>
-      <c r="P11" s="102" t="s">
-        <v>111</v>
+      <c r="N11" s="100"/>
+      <c r="O11" s="145" t="s">
+        <v>224</v>
+      </c>
+      <c r="P11" s="101" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="2:16">
-      <c r="B12" s="129"/>
-      <c r="C12" s="193"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="84" t="s">
-        <v>116</v>
-      </c>
-      <c r="G12" s="84"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="85"/>
-      <c r="K12" s="86" t="s">
+      <c r="B12" s="249"/>
+      <c r="C12" s="244"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="83" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="L12" s="86" t="s">
+      <c r="L12" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="M12" s="86" t="s">
+      <c r="M12" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="N12" s="101"/>
-      <c r="O12" s="271" t="s">
-        <v>235</v>
-      </c>
-      <c r="P12" s="102" t="s">
-        <v>111</v>
+      <c r="N12" s="100"/>
+      <c r="O12" s="145" t="s">
+        <v>225</v>
+      </c>
+      <c r="P12" s="101" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="2:16" ht="27">
-      <c r="B13" s="129"/>
-      <c r="C13" s="193"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="84" t="s">
-        <v>117</v>
-      </c>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="85"/>
-      <c r="K13" s="86" t="s">
+      <c r="B13" s="249"/>
+      <c r="C13" s="244"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="83" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="L13" s="86" t="s">
+      <c r="L13" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="M13" s="86" t="s">
+      <c r="M13" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="N13" s="107"/>
-      <c r="O13" s="265" t="s">
-        <v>232</v>
-      </c>
-      <c r="P13" s="87" t="s">
-        <v>132</v>
+      <c r="N13" s="106"/>
+      <c r="O13" s="139" t="s">
+        <v>222</v>
+      </c>
+      <c r="P13" s="86" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="2:16">
-      <c r="B14" s="129"/>
-      <c r="C14" s="193"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="83" t="s">
-        <v>118</v>
-      </c>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="85"/>
-      <c r="K14" s="86" t="s">
+      <c r="B14" s="249"/>
+      <c r="C14" s="244"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="85" t="s">
         <v>98</v>
       </c>
-      <c r="L14" s="86" t="s">
+      <c r="L14" s="85" t="s">
         <v>94</v>
       </c>
-      <c r="M14" s="86" t="s">
+      <c r="M14" s="85" t="s">
         <v>95</v>
       </c>
-      <c r="N14" s="86" t="s">
+      <c r="N14" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="O14" s="272" t="s">
-        <v>227</v>
-      </c>
-      <c r="P14" s="273" t="s">
-        <v>239</v>
+      <c r="O14" s="146" t="s">
+        <v>217</v>
+      </c>
+      <c r="P14" s="147" t="s">
+        <v>229</v>
       </c>
     </row>
-    <row r="15" spans="2:16" s="98" customFormat="1">
-      <c r="B15" s="129"/>
-      <c r="C15" s="193"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="94" t="s">
+    <row r="15" spans="2:16" s="97" customFormat="1">
+      <c r="B15" s="249"/>
+      <c r="C15" s="244"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="93" t="s">
         <v>70</v>
       </c>
-      <c r="G15" s="84"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="85"/>
-      <c r="K15" s="86" t="s">
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="L15" s="86" t="s">
+      <c r="L15" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="M15" s="86" t="s">
+      <c r="M15" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="N15" s="101"/>
-      <c r="O15" s="272" t="s">
-        <v>230</v>
-      </c>
-      <c r="P15" s="273" t="s">
+      <c r="N15" s="100"/>
+      <c r="O15" s="146" t="s">
+        <v>220</v>
+      </c>
+      <c r="P15" s="147" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="16" spans="2:16">
-      <c r="B16" s="129"/>
-      <c r="C16" s="193"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="90" t="s">
+      <c r="B16" s="249"/>
+      <c r="C16" s="244"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="G16" s="84"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="85"/>
-      <c r="K16" s="86" t="s">
+      <c r="G16" s="83"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="L16" s="86" t="s">
+      <c r="L16" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="M16" s="86" t="s">
+      <c r="M16" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="N16" s="101"/>
-      <c r="O16" s="272" t="s">
-        <v>234</v>
-      </c>
-      <c r="P16" s="273" t="s">
+      <c r="N16" s="100"/>
+      <c r="O16" s="146" t="s">
+        <v>224</v>
+      </c>
+      <c r="P16" s="147" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="17" spans="2:16">
-      <c r="B17" s="129"/>
-      <c r="C17" s="193"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="90" t="s">
+      <c r="B17" s="249"/>
+      <c r="C17" s="244"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="G17" s="84"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="85"/>
-      <c r="K17" s="86" t="s">
+      <c r="G17" s="83"/>
+      <c r="H17" s="83"/>
+      <c r="I17" s="83"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="L17" s="86" t="s">
+      <c r="L17" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="M17" s="86" t="s">
+      <c r="M17" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="N17" s="101"/>
-      <c r="O17" s="272" t="s">
-        <v>235</v>
-      </c>
-      <c r="P17" s="273" t="s">
+      <c r="N17" s="100"/>
+      <c r="O17" s="146" t="s">
+        <v>225</v>
+      </c>
+      <c r="P17" s="147" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="18" spans="2:16" s="80" customFormat="1" ht="40.5">
-      <c r="B18" s="129"/>
-      <c r="C18" s="193"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="90" t="s">
-        <v>112</v>
-      </c>
-      <c r="G18" s="84"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="84"/>
-      <c r="J18" s="85"/>
-      <c r="K18" s="86" t="s">
+      <c r="B18" s="249"/>
+      <c r="C18" s="244"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="89" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" s="83"/>
+      <c r="H18" s="83"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="L18" s="86" t="s">
+      <c r="L18" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="M18" s="86" t="s">
+      <c r="M18" s="85" t="s">
         <v>86</v>
       </c>
-      <c r="N18" s="114"/>
-      <c r="O18" s="272" t="s">
-        <v>236</v>
-      </c>
-      <c r="P18" s="274" t="s">
-        <v>237</v>
+      <c r="N18" s="113"/>
+      <c r="O18" s="146" t="s">
+        <v>226</v>
+      </c>
+      <c r="P18" s="148" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="2:16">
-      <c r="B19" s="129"/>
-      <c r="C19" s="193"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="90" t="s">
+      <c r="B19" s="249"/>
+      <c r="C19" s="244"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="G19" s="84"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="85"/>
-      <c r="K19" s="86" t="s">
+      <c r="G19" s="83"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="84"/>
+      <c r="K19" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="L19" s="86" t="s">
+      <c r="L19" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="M19" s="86" t="s">
+      <c r="M19" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="N19" s="101"/>
-      <c r="O19" s="272" t="s">
-        <v>228</v>
-      </c>
-      <c r="P19" s="273" t="s">
+      <c r="N19" s="100"/>
+      <c r="O19" s="146" t="s">
+        <v>218</v>
+      </c>
+      <c r="P19" s="147" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="20" spans="2:16" ht="27">
-      <c r="B20" s="129"/>
-      <c r="C20" s="193"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="108"/>
-      <c r="F20" s="94" t="s">
+      <c r="B20" s="249"/>
+      <c r="C20" s="244"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="G20" s="84"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="85"/>
-      <c r="K20" s="86" t="s">
+      <c r="G20" s="83"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="83"/>
+      <c r="J20" s="84"/>
+      <c r="K20" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="L20" s="86" t="s">
+      <c r="L20" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="M20" s="86" t="s">
+      <c r="M20" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="N20" s="101"/>
-      <c r="O20" s="272" t="s">
-        <v>231</v>
-      </c>
-      <c r="P20" s="274" t="s">
-        <v>238</v>
+      <c r="N20" s="100"/>
+      <c r="O20" s="146" t="s">
+        <v>221</v>
+      </c>
+      <c r="P20" s="148" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="2:16">
-      <c r="B21" s="129"/>
-      <c r="C21" s="193"/>
-      <c r="D21" s="104" t="s">
-        <v>136</v>
-      </c>
-      <c r="E21" s="84"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="85"/>
-      <c r="K21" s="86" t="s">
+      <c r="B21" s="249"/>
+      <c r="C21" s="244"/>
+      <c r="D21" s="103" t="s">
+        <v>128</v>
+      </c>
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="83"/>
+      <c r="J21" s="84"/>
+      <c r="K21" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="L21" s="86" t="s">
+      <c r="L21" s="85" t="s">
         <v>94</v>
       </c>
-      <c r="M21" s="86" t="s">
+      <c r="M21" s="85" t="s">
         <v>95</v>
       </c>
-      <c r="N21" s="101"/>
-      <c r="O21" s="86" t="s">
-        <v>240</v>
-      </c>
-      <c r="P21" s="102" t="s">
-        <v>111</v>
+      <c r="N21" s="100"/>
+      <c r="O21" s="85" t="s">
+        <v>230</v>
+      </c>
+      <c r="P21" s="101" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="2:16">
-      <c r="B22" s="129"/>
-      <c r="C22" s="193"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="105" t="s">
-        <v>119</v>
-      </c>
-      <c r="F22" s="84"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="84"/>
-      <c r="J22" s="85"/>
-      <c r="K22" s="86" t="s">
-        <v>107</v>
-      </c>
-      <c r="L22" s="86" t="s">
+      <c r="B22" s="249"/>
+      <c r="C22" s="244"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="104" t="s">
+        <v>116</v>
+      </c>
+      <c r="F22" s="83"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="83"/>
+      <c r="I22" s="83"/>
+      <c r="J22" s="84"/>
+      <c r="K22" s="85" t="s">
+        <v>105</v>
+      </c>
+      <c r="L22" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="M22" s="86" t="s">
+      <c r="M22" s="85" t="s">
         <v>86</v>
       </c>
-      <c r="N22" s="92" t="s">
-        <v>134</v>
-      </c>
-      <c r="O22" s="275" t="s">
-        <v>241</v>
-      </c>
-      <c r="P22" s="102" t="s">
-        <v>111</v>
+      <c r="N22" s="91" t="s">
+        <v>127</v>
+      </c>
+      <c r="O22" s="149" t="s">
+        <v>231</v>
+      </c>
+      <c r="P22" s="101" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="2:16">
-      <c r="B23" s="129"/>
-      <c r="C23" s="193"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="94" t="s">
+      <c r="B23" s="249"/>
+      <c r="C23" s="244"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="93" t="s">
         <v>70</v>
       </c>
-      <c r="G23" s="84"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="85"/>
-      <c r="K23" s="86" t="s">
+      <c r="G23" s="83"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="83"/>
+      <c r="J23" s="84"/>
+      <c r="K23" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="L23" s="86" t="s">
+      <c r="L23" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="M23" s="86" t="s">
+      <c r="M23" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="N23" s="101"/>
-      <c r="O23" s="275" t="s">
-        <v>230</v>
-      </c>
-      <c r="P23" s="102" t="s">
-        <v>111</v>
+      <c r="N23" s="100"/>
+      <c r="O23" s="149" t="s">
+        <v>220</v>
+      </c>
+      <c r="P23" s="101" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="2:16" ht="40.5">
-      <c r="B24" s="129"/>
-      <c r="C24" s="193"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="G24" s="84"/>
-      <c r="H24" s="84"/>
-      <c r="I24" s="84"/>
-      <c r="J24" s="85"/>
-      <c r="K24" s="86" t="s">
+      <c r="B24" s="249"/>
+      <c r="C24" s="244"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="93" t="s">
+        <v>117</v>
+      </c>
+      <c r="G24" s="83"/>
+      <c r="H24" s="83"/>
+      <c r="I24" s="83"/>
+      <c r="J24" s="84"/>
+      <c r="K24" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="L24" s="86" t="s">
+      <c r="L24" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="M24" s="86" t="s">
+      <c r="M24" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="N24" s="101"/>
-      <c r="O24" s="276" t="s">
-        <v>242</v>
-      </c>
-      <c r="P24" s="277" t="s">
-        <v>243</v>
+      <c r="N24" s="100"/>
+      <c r="O24" s="150" t="s">
+        <v>232</v>
+      </c>
+      <c r="P24" s="151" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="25" spans="2:16" ht="40.5">
-      <c r="B25" s="129"/>
-      <c r="C25" s="193"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="115"/>
-      <c r="F25" s="94" t="s">
-        <v>123</v>
-      </c>
-      <c r="G25" s="84"/>
-      <c r="H25" s="84"/>
-      <c r="I25" s="84"/>
-      <c r="J25" s="85"/>
-      <c r="K25" s="86" t="s">
+      <c r="B25" s="249"/>
+      <c r="C25" s="244"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="114"/>
+      <c r="F25" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="G25" s="83"/>
+      <c r="H25" s="83"/>
+      <c r="I25" s="83"/>
+      <c r="J25" s="84"/>
+      <c r="K25" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="L25" s="86" t="s">
+      <c r="L25" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="M25" s="86" t="s">
+      <c r="M25" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="N25" s="101"/>
-      <c r="O25" s="276" t="s">
-        <v>244</v>
-      </c>
-      <c r="P25" s="277" t="s">
-        <v>245</v>
+      <c r="N25" s="100"/>
+      <c r="O25" s="150" t="s">
+        <v>234</v>
+      </c>
+      <c r="P25" s="151" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="2:16" ht="40.5">
-      <c r="B26" s="129"/>
-      <c r="C26" s="193"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="94" t="s">
+      <c r="B26" s="249"/>
+      <c r="C26" s="244"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="G26" s="84"/>
-      <c r="H26" s="84"/>
-      <c r="I26" s="84"/>
-      <c r="J26" s="85"/>
-      <c r="K26" s="86" t="s">
+      <c r="G26" s="83"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="83"/>
+      <c r="J26" s="84"/>
+      <c r="K26" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="L26" s="86" t="s">
+      <c r="L26" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="M26" s="86" t="s">
+      <c r="M26" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="N26" s="101"/>
-      <c r="O26" s="276" t="s">
-        <v>231</v>
-      </c>
-      <c r="P26" s="277" t="s">
-        <v>246</v>
+      <c r="N26" s="100"/>
+      <c r="O26" s="150" t="s">
+        <v>221</v>
+      </c>
+      <c r="P26" s="151" t="s">
+        <v>236</v>
       </c>
     </row>
-    <row r="27" spans="2:16">
-      <c r="B27" s="129"/>
-      <c r="C27" s="193"/>
-      <c r="D27" s="257" t="s">
-        <v>121</v>
-      </c>
-      <c r="E27" s="260"/>
-      <c r="F27" s="260"/>
-      <c r="G27" s="260"/>
-      <c r="H27" s="260"/>
-      <c r="I27" s="260"/>
-      <c r="J27" s="279"/>
-      <c r="K27" s="281" t="s">
+    <row r="27" spans="2:16" s="116" customFormat="1">
+      <c r="B27" s="249"/>
+      <c r="C27" s="244"/>
+      <c r="D27" s="82" t="s">
+        <v>275</v>
+      </c>
+      <c r="E27" s="83"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="83"/>
+      <c r="I27" s="83"/>
+      <c r="J27" s="84"/>
+      <c r="K27" s="157" t="s">
         <v>63</v>
       </c>
-      <c r="L27" s="281" t="s">
-        <v>110</v>
-      </c>
-      <c r="M27" s="281" t="s">
-        <v>135</v>
-      </c>
-      <c r="N27" s="253"/>
-      <c r="O27" s="281"/>
-      <c r="P27" s="255" t="s">
-        <v>247</v>
+      <c r="L27" s="157" t="s">
+        <v>86</v>
+      </c>
+      <c r="M27" s="157" t="s">
+        <v>65</v>
+      </c>
+      <c r="N27" s="113"/>
+      <c r="O27" s="263" t="s">
+        <v>276</v>
+      </c>
+      <c r="P27" s="158" t="s">
+        <v>268</v>
       </c>
     </row>
-    <row r="28" spans="2:16">
-      <c r="B28" s="129"/>
-      <c r="C28" s="193"/>
-      <c r="D28" s="282"/>
-      <c r="E28" s="251" t="s">
+    <row r="28" spans="2:16" s="116" customFormat="1">
+      <c r="B28" s="249"/>
+      <c r="C28" s="244"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="F28" s="260"/>
-      <c r="G28" s="260"/>
-      <c r="H28" s="260"/>
-      <c r="I28" s="260"/>
-      <c r="J28" s="279"/>
-      <c r="K28" s="281" t="s">
-        <v>99</v>
-      </c>
-      <c r="L28" s="281" t="s">
+      <c r="F28" s="83"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="83"/>
+      <c r="I28" s="83"/>
+      <c r="J28" s="84"/>
+      <c r="K28" s="157" t="s">
+        <v>277</v>
+      </c>
+      <c r="L28" s="157" t="s">
         <v>65</v>
       </c>
-      <c r="M28" s="281" t="s">
-        <v>94</v>
-      </c>
-      <c r="N28" s="281" t="s">
+      <c r="M28" s="157" t="s">
+        <v>86</v>
+      </c>
+      <c r="N28" s="157" t="s">
         <v>65</v>
       </c>
-      <c r="O28" s="281"/>
-      <c r="P28" s="255"/>
+      <c r="O28" s="263" t="s">
+        <v>278</v>
+      </c>
+      <c r="P28" s="158" t="s">
+        <v>279</v>
+      </c>
     </row>
-    <row r="29" spans="2:16" s="81" customFormat="1">
-      <c r="B29" s="129"/>
-      <c r="C29" s="193"/>
-      <c r="D29" s="282"/>
-      <c r="E29" s="282"/>
-      <c r="F29" s="260" t="s">
-        <v>125</v>
-      </c>
-      <c r="G29" s="260"/>
-      <c r="H29" s="260"/>
-      <c r="I29" s="260"/>
-      <c r="J29" s="279"/>
-      <c r="K29" s="281" t="s">
+    <row r="29" spans="2:16" s="116" customFormat="1" ht="27">
+      <c r="B29" s="249"/>
+      <c r="C29" s="244"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="83" t="s">
+        <v>280</v>
+      </c>
+      <c r="G29" s="83"/>
+      <c r="H29" s="83"/>
+      <c r="I29" s="83"/>
+      <c r="J29" s="84"/>
+      <c r="K29" s="157" t="s">
         <v>64</v>
       </c>
-      <c r="L29" s="281" t="s">
+      <c r="L29" s="157" t="s">
         <v>65</v>
       </c>
-      <c r="M29" s="281" t="s">
+      <c r="M29" s="157" t="s">
         <v>86</v>
       </c>
-      <c r="N29" s="253"/>
-      <c r="O29" s="281"/>
-      <c r="P29" s="255"/>
+      <c r="N29" s="113"/>
+      <c r="O29" s="263" t="s">
+        <v>281</v>
+      </c>
+      <c r="P29" s="158" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="30" spans="2:16" s="116" customFormat="1">
-      <c r="B30" s="129"/>
-      <c r="C30" s="193"/>
-      <c r="D30" s="282"/>
-      <c r="E30" s="282"/>
-      <c r="F30" s="260" t="s">
+      <c r="B30" s="249"/>
+      <c r="C30" s="244"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="G30" s="260"/>
-      <c r="H30" s="260"/>
-      <c r="I30" s="260"/>
-      <c r="J30" s="279"/>
-      <c r="K30" s="281" t="s">
+      <c r="G30" s="83"/>
+      <c r="H30" s="83"/>
+      <c r="I30" s="83"/>
+      <c r="J30" s="84"/>
+      <c r="K30" s="157" t="s">
         <v>64</v>
       </c>
-      <c r="L30" s="281" t="s">
+      <c r="L30" s="157" t="s">
         <v>65</v>
       </c>
-      <c r="M30" s="281" t="s">
-        <v>94</v>
-      </c>
-      <c r="N30" s="253"/>
-      <c r="O30" s="281"/>
-      <c r="P30" s="255"/>
+      <c r="M30" s="157" t="s">
+        <v>86</v>
+      </c>
+      <c r="N30" s="113"/>
+      <c r="O30" s="263" t="s">
+        <v>283</v>
+      </c>
+      <c r="P30" s="158" t="s">
+        <v>279</v>
+      </c>
     </row>
-    <row r="31" spans="2:16">
-      <c r="B31" s="129"/>
-      <c r="C31" s="193"/>
-      <c r="D31" s="282"/>
-      <c r="E31" s="282"/>
-      <c r="F31" s="260" t="s">
+    <row r="31" spans="2:16" s="116" customFormat="1">
+      <c r="B31" s="249"/>
+      <c r="C31" s="244"/>
+      <c r="D31" s="87"/>
+      <c r="E31" s="87"/>
+      <c r="F31" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="G31" s="260"/>
-      <c r="H31" s="260"/>
-      <c r="I31" s="260"/>
-      <c r="J31" s="279"/>
-      <c r="K31" s="281" t="s">
-        <v>100</v>
-      </c>
-      <c r="L31" s="281" t="s">
+      <c r="G31" s="83"/>
+      <c r="H31" s="83"/>
+      <c r="I31" s="83"/>
+      <c r="J31" s="84"/>
+      <c r="K31" s="157" t="s">
+        <v>284</v>
+      </c>
+      <c r="L31" s="157" t="s">
         <v>65</v>
       </c>
-      <c r="M31" s="281" t="s">
-        <v>94</v>
-      </c>
-      <c r="N31" s="281" t="s">
+      <c r="M31" s="157" t="s">
+        <v>86</v>
+      </c>
+      <c r="N31" s="157" t="s">
         <v>65</v>
       </c>
-      <c r="O31" s="281"/>
-      <c r="P31" s="255"/>
+      <c r="O31" s="263" t="s">
+        <v>285</v>
+      </c>
+      <c r="P31" s="158" t="s">
+        <v>279</v>
+      </c>
     </row>
-    <row r="32" spans="2:16">
-      <c r="B32" s="129"/>
-      <c r="C32" s="193"/>
-      <c r="D32" s="282"/>
-      <c r="E32" s="282"/>
-      <c r="F32" s="261" t="s">
+    <row r="32" spans="2:16" s="116" customFormat="1" ht="27">
+      <c r="B32" s="249"/>
+      <c r="C32" s="244"/>
+      <c r="D32" s="87"/>
+      <c r="E32" s="87"/>
+      <c r="F32" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="G32" s="260"/>
-      <c r="H32" s="260"/>
-      <c r="I32" s="260"/>
-      <c r="J32" s="279"/>
-      <c r="K32" s="281" t="s">
+      <c r="G32" s="83"/>
+      <c r="H32" s="83"/>
+      <c r="I32" s="83"/>
+      <c r="J32" s="84"/>
+      <c r="K32" s="157" t="s">
         <v>64</v>
       </c>
-      <c r="L32" s="281" t="s">
+      <c r="L32" s="157" t="s">
         <v>65</v>
       </c>
-      <c r="M32" s="281" t="s">
-        <v>94</v>
-      </c>
-      <c r="N32" s="253"/>
-      <c r="O32" s="281"/>
-      <c r="P32" s="278"/>
+      <c r="M32" s="157" t="s">
+        <v>86</v>
+      </c>
+      <c r="N32" s="113"/>
+      <c r="O32" s="263" t="s">
+        <v>286</v>
+      </c>
+      <c r="P32" s="158" t="s">
+        <v>287</v>
+      </c>
     </row>
-    <row r="33" spans="2:16">
-      <c r="B33" s="129"/>
-      <c r="C33" s="193"/>
-      <c r="D33" s="282"/>
-      <c r="E33" s="282"/>
-      <c r="F33" s="251" t="s">
+    <row r="33" spans="2:16" s="116" customFormat="1" ht="27">
+      <c r="B33" s="249"/>
+      <c r="C33" s="244"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="90" t="s">
+        <v>288</v>
+      </c>
+      <c r="G33" s="83"/>
+      <c r="H33" s="83"/>
+      <c r="I33" s="83"/>
+      <c r="J33" s="84"/>
+      <c r="K33" s="157" t="s">
+        <v>277</v>
+      </c>
+      <c r="L33" s="157" t="s">
+        <v>86</v>
+      </c>
+      <c r="M33" s="157" t="s">
+        <v>65</v>
+      </c>
+      <c r="N33" s="157" t="s">
+        <v>65</v>
+      </c>
+      <c r="O33" s="263" t="s">
+        <v>289</v>
+      </c>
+      <c r="P33" s="158" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" s="116" customFormat="1">
+      <c r="B34" s="249"/>
+      <c r="C34" s="244"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="264"/>
+      <c r="G34" s="93" t="s">
+        <v>291</v>
+      </c>
+      <c r="H34" s="83"/>
+      <c r="I34" s="83"/>
+      <c r="J34" s="84"/>
+      <c r="K34" s="157" t="s">
+        <v>64</v>
+      </c>
+      <c r="L34" s="157" t="s">
+        <v>65</v>
+      </c>
+      <c r="M34" s="157" t="s">
+        <v>86</v>
+      </c>
+      <c r="N34" s="113"/>
+      <c r="O34" s="263" t="s">
+        <v>292</v>
+      </c>
+      <c r="P34" s="158" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" s="116" customFormat="1" ht="27">
+      <c r="B35" s="249"/>
+      <c r="C35" s="244"/>
+      <c r="D35" s="87"/>
+      <c r="E35" s="87"/>
+      <c r="F35" s="264"/>
+      <c r="G35" s="93" t="s">
+        <v>294</v>
+      </c>
+      <c r="H35" s="83"/>
+      <c r="I35" s="83"/>
+      <c r="J35" s="84"/>
+      <c r="K35" s="157" t="s">
+        <v>64</v>
+      </c>
+      <c r="L35" s="157" t="s">
+        <v>65</v>
+      </c>
+      <c r="M35" s="157" t="s">
+        <v>86</v>
+      </c>
+      <c r="N35" s="113"/>
+      <c r="O35" s="263" t="s">
+        <v>295</v>
+      </c>
+      <c r="P35" s="158" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" s="116" customFormat="1" ht="27">
+      <c r="B36" s="249"/>
+      <c r="C36" s="244"/>
+      <c r="D36" s="87"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="264"/>
+      <c r="G36" s="93" t="s">
+        <v>297</v>
+      </c>
+      <c r="H36" s="83"/>
+      <c r="I36" s="83"/>
+      <c r="J36" s="84"/>
+      <c r="K36" s="157" t="s">
+        <v>64</v>
+      </c>
+      <c r="L36" s="157" t="s">
+        <v>65</v>
+      </c>
+      <c r="M36" s="157" t="s">
+        <v>86</v>
+      </c>
+      <c r="N36" s="113"/>
+      <c r="O36" s="263" t="s">
+        <v>298</v>
+      </c>
+      <c r="P36" s="158" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" s="116" customFormat="1" ht="27">
+      <c r="B37" s="249"/>
+      <c r="C37" s="244"/>
+      <c r="D37" s="87"/>
+      <c r="E37" s="157"/>
+      <c r="F37" s="107"/>
+      <c r="G37" s="93" t="s">
+        <v>75</v>
+      </c>
+      <c r="H37" s="83"/>
+      <c r="I37" s="83"/>
+      <c r="J37" s="84"/>
+      <c r="K37" s="157" t="s">
+        <v>64</v>
+      </c>
+      <c r="L37" s="157" t="s">
+        <v>65</v>
+      </c>
+      <c r="M37" s="143" t="s">
+        <v>86</v>
+      </c>
+      <c r="N37" s="113"/>
+      <c r="O37" s="263" t="s">
+        <v>300</v>
+      </c>
+      <c r="P37" s="158" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" s="116" customFormat="1">
+      <c r="B38" s="249"/>
+      <c r="C38" s="244"/>
+      <c r="D38" s="87"/>
+      <c r="E38" s="90" t="s">
+        <v>302</v>
+      </c>
+      <c r="F38" s="83"/>
+      <c r="G38" s="83"/>
+      <c r="H38" s="83"/>
+      <c r="I38" s="83"/>
+      <c r="J38" s="84"/>
+      <c r="K38" s="157" t="s">
+        <v>63</v>
+      </c>
+      <c r="L38" s="143" t="s">
+        <v>86</v>
+      </c>
+      <c r="M38" s="157" t="s">
+        <v>65</v>
+      </c>
+      <c r="N38" s="106"/>
+      <c r="O38" s="263" t="s">
+        <v>303</v>
+      </c>
+      <c r="P38" s="158" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" s="116" customFormat="1" ht="27">
+      <c r="B39" s="249"/>
+      <c r="C39" s="244"/>
+      <c r="D39" s="87"/>
+      <c r="E39" s="87"/>
+      <c r="F39" s="90" t="s">
         <v>74</v>
       </c>
-      <c r="G33" s="260"/>
-      <c r="H33" s="260"/>
-      <c r="I33" s="260"/>
-      <c r="J33" s="279"/>
-      <c r="K33" s="281" t="s">
-        <v>99</v>
-      </c>
-      <c r="L33" s="281" t="s">
+      <c r="G39" s="83"/>
+      <c r="H39" s="83"/>
+      <c r="I39" s="83"/>
+      <c r="J39" s="84"/>
+      <c r="K39" s="157" t="s">
+        <v>277</v>
+      </c>
+      <c r="L39" s="157" t="s">
         <v>65</v>
       </c>
-      <c r="M33" s="281" t="s">
-        <v>94</v>
-      </c>
-      <c r="N33" s="281" t="s">
+      <c r="M39" s="157" t="s">
+        <v>305</v>
+      </c>
+      <c r="N39" s="157" t="s">
         <v>65</v>
       </c>
-      <c r="O33" s="281"/>
-      <c r="P33" s="278"/>
+      <c r="O39" s="263" t="s">
+        <v>289</v>
+      </c>
+      <c r="P39" s="158" t="s">
+        <v>306</v>
+      </c>
     </row>
-    <row r="34" spans="2:16">
-      <c r="B34" s="129"/>
-      <c r="C34" s="193"/>
-      <c r="D34" s="282"/>
-      <c r="E34" s="282"/>
-      <c r="F34" s="280"/>
-      <c r="G34" s="252" t="s">
-        <v>139</v>
-      </c>
-      <c r="H34" s="260"/>
-      <c r="I34" s="260"/>
-      <c r="J34" s="279"/>
-      <c r="K34" s="281" t="s">
+    <row r="40" spans="2:16" s="116" customFormat="1">
+      <c r="B40" s="249"/>
+      <c r="C40" s="244"/>
+      <c r="D40" s="87"/>
+      <c r="E40" s="87"/>
+      <c r="F40" s="264"/>
+      <c r="G40" s="83" t="s">
+        <v>307</v>
+      </c>
+      <c r="H40" s="83"/>
+      <c r="I40" s="83"/>
+      <c r="J40" s="84"/>
+      <c r="K40" s="157" t="s">
         <v>64</v>
       </c>
-      <c r="L34" s="281" t="s">
+      <c r="L40" s="157" t="s">
         <v>65</v>
       </c>
-      <c r="M34" s="281" t="s">
-        <v>94</v>
-      </c>
-      <c r="N34" s="256"/>
-      <c r="O34" s="281"/>
-      <c r="P34" s="278"/>
+      <c r="M40" s="157" t="s">
+        <v>305</v>
+      </c>
+      <c r="N40" s="106"/>
+      <c r="O40" s="263" t="s">
+        <v>308</v>
+      </c>
+      <c r="P40" s="158" t="s">
+        <v>279</v>
+      </c>
     </row>
-    <row r="35" spans="2:16">
-      <c r="B35" s="129"/>
-      <c r="C35" s="193"/>
-      <c r="D35" s="282"/>
-      <c r="E35" s="282"/>
-      <c r="F35" s="280"/>
-      <c r="G35" s="252" t="s">
-        <v>124</v>
-      </c>
-      <c r="H35" s="260"/>
-      <c r="I35" s="260"/>
-      <c r="J35" s="279"/>
-      <c r="K35" s="281" t="s">
+    <row r="41" spans="2:16" s="116" customFormat="1">
+      <c r="B41" s="249"/>
+      <c r="C41" s="244"/>
+      <c r="D41" s="87"/>
+      <c r="E41" s="87"/>
+      <c r="F41" s="264"/>
+      <c r="G41" s="83" t="s">
+        <v>309</v>
+      </c>
+      <c r="H41" s="83"/>
+      <c r="I41" s="83"/>
+      <c r="J41" s="84"/>
+      <c r="K41" s="157" t="s">
         <v>64</v>
       </c>
-      <c r="L35" s="281" t="s">
+      <c r="L41" s="157" t="s">
         <v>65</v>
       </c>
-      <c r="M35" s="281" t="s">
-        <v>94</v>
-      </c>
-      <c r="N35" s="256"/>
-      <c r="O35" s="281"/>
-      <c r="P35" s="278"/>
+      <c r="M41" s="157" t="s">
+        <v>305</v>
+      </c>
+      <c r="N41" s="106"/>
+      <c r="O41" s="263" t="s">
+        <v>310</v>
+      </c>
+      <c r="P41" s="158" t="s">
+        <v>279</v>
+      </c>
     </row>
-    <row r="36" spans="2:16">
-      <c r="B36" s="129"/>
-      <c r="C36" s="193"/>
-      <c r="D36" s="282"/>
-      <c r="E36" s="282"/>
-      <c r="F36" s="280"/>
-      <c r="G36" s="252" t="s">
-        <v>122</v>
-      </c>
-      <c r="H36" s="260"/>
-      <c r="I36" s="260"/>
-      <c r="J36" s="279"/>
-      <c r="K36" s="281" t="s">
+    <row r="42" spans="2:16" s="116" customFormat="1" ht="27">
+      <c r="B42" s="249"/>
+      <c r="C42" s="244"/>
+      <c r="D42" s="157"/>
+      <c r="E42" s="157"/>
+      <c r="F42" s="84"/>
+      <c r="G42" s="93" t="s">
+        <v>75</v>
+      </c>
+      <c r="H42" s="83"/>
+      <c r="I42" s="83"/>
+      <c r="J42" s="84"/>
+      <c r="K42" s="157" t="s">
         <v>64</v>
       </c>
-      <c r="L36" s="281" t="s">
+      <c r="L42" s="157" t="s">
         <v>65</v>
       </c>
-      <c r="M36" s="281" t="s">
-        <v>94</v>
-      </c>
-      <c r="N36" s="256"/>
-      <c r="O36" s="281"/>
-      <c r="P36" s="278"/>
+      <c r="M42" s="157" t="s">
+        <v>305</v>
+      </c>
+      <c r="N42" s="106"/>
+      <c r="O42" s="263" t="s">
+        <v>300</v>
+      </c>
+      <c r="P42" s="158" t="s">
+        <v>301</v>
+      </c>
     </row>
-    <row r="37" spans="2:16">
-      <c r="B37" s="145"/>
-      <c r="C37" s="194"/>
-      <c r="D37" s="281"/>
-      <c r="E37" s="281"/>
-      <c r="F37" s="241"/>
-      <c r="G37" s="252" t="s">
-        <v>75</v>
-      </c>
-      <c r="H37" s="260"/>
-      <c r="I37" s="260"/>
-      <c r="J37" s="279"/>
-      <c r="K37" s="281" t="s">
-        <v>64</v>
-      </c>
-      <c r="L37" s="281" t="s">
-        <v>65</v>
-      </c>
-      <c r="M37" s="281" t="s">
-        <v>94</v>
-      </c>
-      <c r="N37" s="253"/>
-      <c r="O37" s="281"/>
-      <c r="P37" s="278"/>
+    <row r="43" spans="2:16">
+      <c r="B43" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="92">
+        <v>200</v>
+      </c>
+      <c r="D43" s="93" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="94"/>
+      <c r="F43" s="94"/>
+      <c r="G43" s="94"/>
+      <c r="H43" s="94"/>
+      <c r="I43" s="107"/>
+      <c r="J43" s="84"/>
+      <c r="K43" s="85" t="s">
+        <v>26</v>
+      </c>
+      <c r="L43" s="85" t="s">
+        <v>26</v>
+      </c>
+      <c r="M43" s="85" t="s">
+        <v>26</v>
+      </c>
+      <c r="N43" s="85" t="s">
+        <v>26</v>
+      </c>
+      <c r="O43" s="85" t="s">
+        <v>26</v>
+      </c>
+      <c r="P43" s="86" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="38" spans="2:16">
-      <c r="B38" s="160" t="s">
-        <v>88</v>
-      </c>
-      <c r="C38" s="93">
-        <v>200</v>
-      </c>
-      <c r="D38" s="94" t="s">
-        <v>26</v>
-      </c>
-      <c r="E38" s="95"/>
-      <c r="F38" s="95"/>
-      <c r="G38" s="95"/>
-      <c r="H38" s="95"/>
-      <c r="I38" s="108"/>
-      <c r="J38" s="85"/>
-      <c r="K38" s="86" t="s">
-        <v>26</v>
-      </c>
-      <c r="L38" s="86" t="s">
-        <v>26</v>
-      </c>
-      <c r="M38" s="86" t="s">
-        <v>26</v>
-      </c>
-      <c r="N38" s="86" t="s">
-        <v>26</v>
-      </c>
-      <c r="O38" s="86" t="s">
-        <v>26</v>
-      </c>
-      <c r="P38" s="87" t="s">
-        <v>26</v>
-      </c>
+    <row r="44" spans="2:16" ht="14.25" thickBot="1">
+      <c r="B44" s="197"/>
+      <c r="C44" s="246" t="s">
+        <v>188</v>
+      </c>
+      <c r="D44" s="247"/>
+      <c r="E44" s="247"/>
+      <c r="F44" s="247"/>
+      <c r="G44" s="247"/>
+      <c r="H44" s="247"/>
+      <c r="I44" s="247"/>
+      <c r="J44" s="247"/>
+      <c r="K44" s="247"/>
+      <c r="L44" s="247"/>
+      <c r="M44" s="247"/>
+      <c r="N44" s="247"/>
+      <c r="O44" s="247"/>
+      <c r="P44" s="247"/>
     </row>
-    <row r="39" spans="2:16" ht="14.25" thickBot="1">
-      <c r="B39" s="161"/>
-      <c r="C39" s="195" t="s">
-        <v>197</v>
-      </c>
-      <c r="D39" s="196"/>
-      <c r="E39" s="196"/>
-      <c r="F39" s="196"/>
-      <c r="G39" s="196"/>
-      <c r="H39" s="196"/>
-      <c r="I39" s="196"/>
-      <c r="J39" s="196"/>
-      <c r="K39" s="196"/>
-      <c r="L39" s="196"/>
-      <c r="M39" s="196"/>
-      <c r="N39" s="196"/>
-      <c r="O39" s="196"/>
-      <c r="P39" s="196"/>
+    <row r="45" spans="2:16">
+      <c r="B45" s="78"/>
+      <c r="D45" s="78"/>
+      <c r="E45" s="78"/>
+      <c r="F45" s="78"/>
+      <c r="G45" s="78"/>
+      <c r="H45" s="78"/>
+      <c r="I45" s="78"/>
+      <c r="J45" s="78"/>
+      <c r="K45" s="78"/>
+      <c r="L45" s="78"/>
+      <c r="M45" s="78"/>
+      <c r="N45" s="78"/>
+      <c r="O45" s="78"/>
+      <c r="P45" s="78"/>
     </row>
-    <row r="40" spans="2:16">
-      <c r="B40" s="78"/>
-      <c r="D40" s="78"/>
-      <c r="E40" s="78"/>
-      <c r="F40" s="78"/>
-      <c r="G40" s="78"/>
-      <c r="H40" s="78"/>
-      <c r="I40" s="78"/>
-      <c r="J40" s="78"/>
-      <c r="K40" s="78"/>
-      <c r="L40" s="78"/>
-      <c r="M40" s="78"/>
-      <c r="N40" s="78"/>
-      <c r="O40" s="78"/>
-      <c r="P40" s="78"/>
-    </row>
-    <row r="41" spans="2:16">
-      <c r="B41" s="78"/>
-      <c r="C41" s="78" t="s">
-        <v>198</v>
-      </c>
-      <c r="D41" s="78"/>
-      <c r="E41" s="78"/>
-      <c r="F41" s="78"/>
-      <c r="G41" s="78"/>
-      <c r="H41" s="78"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="78"/>
-      <c r="K41" s="78"/>
-      <c r="L41" s="78"/>
-      <c r="M41" s="78"/>
-      <c r="N41" s="78"/>
-      <c r="O41" s="78"/>
-      <c r="P41" s="78"/>
+    <row r="46" spans="2:16">
+      <c r="B46" s="78"/>
+      <c r="C46" s="78" t="s">
+        <v>189</v>
+      </c>
+      <c r="D46" s="78"/>
+      <c r="E46" s="78"/>
+      <c r="F46" s="78"/>
+      <c r="G46" s="78"/>
+      <c r="H46" s="78"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="78"/>
+      <c r="K46" s="78"/>
+      <c r="L46" s="78"/>
+      <c r="M46" s="78"/>
+      <c r="N46" s="78"/>
+      <c r="O46" s="78"/>
+      <c r="P46" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C39:P39"/>
-    <mergeCell ref="B8:B37"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C44:P44"/>
+    <mergeCell ref="B8:B42"/>
     <mergeCell ref="D2:I2"/>
     <mergeCell ref="D3:I3"/>
     <mergeCell ref="B5:D5"/>
@@ -46715,14 +47182,14 @@
     <mergeCell ref="D7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="C8:C37"/>
+    <mergeCell ref="C8:C42"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="71" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="54" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="6" max="14" man="1"/>
-    <brk id="39" max="14" man="1"/>
+    <brk id="44" max="14" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>